--- a/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2702672990993875</v>
+        <v>0.270267299099487</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01298776387064393</v>
+        <v>0.01298776387065104</v>
       </c>
       <c r="E2">
-        <v>0.01323362661301952</v>
+        <v>0.01323362661300753</v>
       </c>
       <c r="F2">
-        <v>2.083732631584184</v>
+        <v>2.083732631584155</v>
       </c>
       <c r="G2">
-        <v>1.636413922572956</v>
+        <v>1.636413922572984</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.007043911012132531</v>
+        <v>0.007043911012132975</v>
       </c>
       <c r="J2">
-        <v>4.135736557302522</v>
+        <v>4.135736557302494</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.704413655536655</v>
+        <v>2.704413655536641</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2358328152103439</v>
+        <v>0.235832815210415</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0102066585688263</v>
+        <v>0.01020665856882275</v>
       </c>
       <c r="E3">
-        <v>0.01489537850925249</v>
+        <v>0.0148953785092758</v>
       </c>
       <c r="F3">
-        <v>1.803526108272024</v>
+        <v>1.803526108271996</v>
       </c>
       <c r="G3">
         <v>1.413818145743988</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.008800602258989931</v>
+        <v>0.008800602259002588</v>
       </c>
       <c r="J3">
         <v>3.568630919529937</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.328804108592976</v>
+        <v>2.328804108593005</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2149372472184155</v>
+        <v>0.2149372472182876</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00872137541525575</v>
+        <v>0.008721375415149168</v>
       </c>
       <c r="E4">
-        <v>0.01598394082586663</v>
+        <v>0.01598394082585242</v>
       </c>
       <c r="F4">
-        <v>1.641673919212863</v>
+        <v>1.641673919212849</v>
       </c>
       <c r="G4">
         <v>1.285578896688321</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01001133881601324</v>
+        <v>0.01001133881598948</v>
       </c>
       <c r="J4">
-        <v>3.225687340308809</v>
+        <v>3.225687340308752</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.102198010556023</v>
+        <v>2.102198010556037</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2064766432091716</v>
+        <v>0.2064766432093563</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008163592488202198</v>
+        <v>0.008163592488109828</v>
       </c>
       <c r="E5">
-        <v>0.01644411156841219</v>
+        <v>0.01644411156841286</v>
       </c>
       <c r="F5">
-        <v>1.577938683465973</v>
+        <v>1.577938683465959</v>
       </c>
       <c r="G5">
-        <v>1.23515654903332</v>
+        <v>1.235156549033306</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01053535001655181</v>
+        <v>0.01053535001652706</v>
       </c>
       <c r="J5">
         <v>3.086999604061262</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2050748471579453</v>
+        <v>0.2050748471577748</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008073616596000477</v>
+        <v>0.008073616596014688</v>
       </c>
       <c r="E6">
-        <v>0.01652150746643377</v>
+        <v>0.01652150746639669</v>
       </c>
       <c r="F6">
-        <v>1.567480409511546</v>
+        <v>1.567480409511532</v>
       </c>
       <c r="G6">
         <v>1.226887199913861</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01062414137467915</v>
+        <v>0.01062414137469248</v>
       </c>
       <c r="J6">
-        <v>3.064027969351727</v>
+        <v>3.064027969351756</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.995527026088482</v>
+        <v>1.995527026088467</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2148229334960234</v>
+        <v>0.2148229334963219</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -611,28 +611,28 @@
         <v>0.008713670988736766</v>
       </c>
       <c r="E7">
-        <v>0.01599008047962958</v>
+        <v>0.01599008047963268</v>
       </c>
       <c r="F7">
-        <v>1.640805793536813</v>
+        <v>1.640805793536799</v>
       </c>
       <c r="G7">
-        <v>1.284891799239887</v>
+        <v>1.284891799239858</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0100182850146795</v>
+        <v>0.01001828501465951</v>
       </c>
       <c r="J7">
-        <v>3.223812956450416</v>
+        <v>3.223812956450388</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.10096064141338</v>
+        <v>2.100960641413366</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.258338087194744</v>
+        <v>0.2583380871945593</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01197723150492891</v>
+        <v>0.01197723150513141</v>
       </c>
       <c r="E8">
-        <v>0.01379206349192241</v>
+        <v>0.01379206349191442</v>
       </c>
       <c r="F8">
         <v>1.984780511986799</v>
       </c>
       <c r="G8">
-        <v>1.557728599267534</v>
+        <v>1.55772859926752</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.007620530185476149</v>
+        <v>0.007620530185467711</v>
       </c>
       <c r="J8">
-        <v>3.938939844662599</v>
+        <v>3.938939844662571</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.573949313605709</v>
+        <v>2.573949313605752</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3460263124919152</v>
+        <v>0.3460263124918441</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02059793213202354</v>
+        <v>0.02059793213211236</v>
       </c>
       <c r="E9">
-        <v>0.01005311341269599</v>
+        <v>0.01005311341265958</v>
       </c>
       <c r="F9">
-        <v>2.758463136833768</v>
+        <v>2.758463136833853</v>
       </c>
       <c r="G9">
-        <v>2.174870819043093</v>
+        <v>2.174870819043136</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.004103690973781049</v>
+        <v>0.004103690973757734</v>
       </c>
       <c r="J9">
-        <v>5.396854527780079</v>
+        <v>5.396854527780107</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.543295273437749</v>
+        <v>3.543295273437778</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4125171921415074</v>
+        <v>0.4125171921417063</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02908137688568502</v>
+        <v>0.02908137688590529</v>
       </c>
       <c r="E10">
-        <v>0.007702626757062569</v>
+        <v>0.007702626757077669</v>
       </c>
       <c r="F10">
         <v>3.418395264078868</v>
       </c>
       <c r="G10">
-        <v>2.704206666717837</v>
+        <v>2.704206666717852</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.002472629464988163</v>
+        <v>0.002472629464987275</v>
       </c>
       <c r="J10">
         <v>6.525332924196277</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.297825119199416</v>
+        <v>4.297825119199473</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4433831714363947</v>
+        <v>0.4433831714364942</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0336486446405182</v>
+        <v>0.03364864464064254</v>
       </c>
       <c r="E11">
-        <v>0.006732596174157335</v>
+        <v>0.00673259617418287</v>
       </c>
       <c r="F11">
-        <v>3.747603428439675</v>
+        <v>3.747603428439646</v>
       </c>
       <c r="G11">
-        <v>2.969105696825835</v>
+        <v>2.969105696825821</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.002004198899318688</v>
+        <v>0.002004198899314247</v>
       </c>
       <c r="J11">
-        <v>7.058004169568733</v>
+        <v>7.058004169568704</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.655187052831053</v>
+        <v>4.65518705283101</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4551771996120522</v>
+        <v>0.4551771996125495</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03550704714048436</v>
+        <v>0.03550704714074016</v>
       </c>
       <c r="E12">
-        <v>0.006380890225584412</v>
+        <v>0.006380890225537117</v>
       </c>
       <c r="F12">
         <v>3.877433012544145</v>
       </c>
       <c r="G12">
-        <v>3.073714300258672</v>
+        <v>3.073714300258686</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.001873366409786748</v>
+        <v>0.001873366409766319</v>
       </c>
       <c r="J12">
         <v>7.263231821919106</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.793072805947219</v>
+        <v>4.793072805947205</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4526321420184871</v>
+        <v>0.4526321420184587</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03510056353843538</v>
+        <v>0.03510056353855262</v>
       </c>
       <c r="E13">
-        <v>0.006455917217982332</v>
+        <v>0.006455917217978335</v>
       </c>
       <c r="F13">
         <v>3.849223583545893</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.001899339555521795</v>
+        <v>0.001899339555500479</v>
       </c>
       <c r="J13">
-        <v>7.218862261256476</v>
+        <v>7.21886226125639</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -874,31 +874,31 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03379877213073001</v>
+        <v>0.03379877213095384</v>
       </c>
       <c r="E14">
-        <v>0.006703339328490321</v>
+        <v>0.006703339328459901</v>
       </c>
       <c r="F14">
-        <v>3.758174465738591</v>
+        <v>3.758174465738648</v>
       </c>
       <c r="G14">
-        <v>2.977620276971535</v>
+        <v>2.977620276971592</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.001992454783847908</v>
+        <v>0.001992454783843023</v>
       </c>
       <c r="J14">
-        <v>7.074813021346955</v>
+        <v>7.074813021347012</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.666476184184617</v>
+        <v>4.66647618418466</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4392932798923397</v>
+        <v>0.4392932798921265</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03301909925052726</v>
+        <v>0.03301909925065516</v>
       </c>
       <c r="E15">
-        <v>0.006856971674469525</v>
+        <v>0.006856971674470413</v>
       </c>
       <c r="F15">
         <v>3.703110727802198</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.002055796219038619</v>
+        <v>0.002055796219054162</v>
       </c>
       <c r="J15">
         <v>6.987061624759633</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.410513848700873</v>
+        <v>0.4105138487004751</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02879929671066606</v>
+        <v>0.02879929671089343</v>
       </c>
       <c r="E16">
-        <v>0.007768127490624943</v>
+        <v>0.007768127490626497</v>
       </c>
       <c r="F16">
-        <v>3.397543995879005</v>
+        <v>3.397543995879062</v>
       </c>
       <c r="G16">
-        <v>2.687446405925911</v>
+        <v>2.687446405925897</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0.002509326644708487</v>
       </c>
       <c r="J16">
-        <v>6.490969608583242</v>
+        <v>6.490969608583185</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.27479735238839</v>
+        <v>4.274797352388404</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3930281608916033</v>
+        <v>0.3930281608913759</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02640905995452059</v>
+        <v>0.02640905995451703</v>
       </c>
       <c r="E17">
-        <v>0.008353395003200426</v>
+        <v>0.008353395003244835</v>
       </c>
       <c r="F17">
-        <v>3.218152574050379</v>
+        <v>3.218152574050407</v>
       </c>
       <c r="G17">
-        <v>2.543342846437497</v>
+        <v>2.543342846437469</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.002862250950095957</v>
+        <v>0.002862250950112388</v>
       </c>
       <c r="J17">
-        <v>6.192054919344372</v>
+        <v>6.192054919344429</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.074621679302325</v>
+        <v>4.074621679302297</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3830279601902618</v>
+        <v>0.3830279601902191</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02509893721986245</v>
+        <v>0.02509893721996193</v>
       </c>
       <c r="E18">
-        <v>0.008699270263003323</v>
+        <v>0.008699270262976011</v>
       </c>
       <c r="F18">
-        <v>3.117629548115843</v>
+        <v>3.117629548115872</v>
       </c>
       <c r="G18">
         <v>2.462666978590477</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.003090475685244121</v>
+        <v>0.003090475685227245</v>
       </c>
       <c r="J18">
-        <v>6.021892739796868</v>
+        <v>6.02189273979684</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3796514074233954</v>
+        <v>0.3796514074238075</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02466574782297926</v>
+        <v>0.02466574782298281</v>
       </c>
       <c r="E19">
-        <v>0.008817928028776123</v>
+        <v>0.008817928028833633</v>
       </c>
       <c r="F19">
-        <v>3.084024167008295</v>
+        <v>3.084024167008266</v>
       </c>
       <c r="G19">
-        <v>2.435708692325832</v>
+        <v>2.435708692325818</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.003171888384917221</v>
+        <v>0.003171888384917665</v>
       </c>
       <c r="J19">
-        <v>5.964562222059243</v>
+        <v>5.964562222059271</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3948835199683884</v>
+        <v>0.3948835199682321</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02665663721040445</v>
+        <v>0.0266566372104009</v>
       </c>
       <c r="E20">
-        <v>0.008290126413666554</v>
+        <v>0.008290126413665444</v>
       </c>
       <c r="F20">
-        <v>3.236967533247082</v>
+        <v>3.23696753324711</v>
       </c>
       <c r="G20">
         <v>2.558448938285821</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.002822023073310032</v>
+        <v>0.002822023073308699</v>
       </c>
       <c r="J20">
         <v>6.223687357679523</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.095793627978935</v>
+        <v>4.095793627978921</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4467805281595361</v>
+        <v>0.4467805281594508</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03417738950504656</v>
+        <v>0.03417738950515314</v>
       </c>
       <c r="E21">
-        <v>0.006630229377471375</v>
+        <v>0.006630229377470931</v>
       </c>
       <c r="F21">
         <v>3.784768427883051</v>
       </c>
       <c r="G21">
-        <v>2.999043022116666</v>
+        <v>2.999043022116652</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001963775100815912</v>
+        <v>0.001963775100815468</v>
       </c>
       <c r="J21">
-        <v>7.117021553628149</v>
+        <v>7.117021553628121</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.694827501633625</v>
+        <v>4.694827501633611</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4813247372247247</v>
+        <v>0.481324737224881</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0398622956341157</v>
+        <v>0.03986229563436439</v>
       </c>
       <c r="E22">
-        <v>0.005637280494759533</v>
+        <v>0.005637280494739105</v>
       </c>
       <c r="F22">
-        <v>4.173556855385442</v>
+        <v>4.173556855385385</v>
       </c>
       <c r="G22">
-        <v>3.312595543967291</v>
+        <v>3.312595543967262</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.001678903852007529</v>
+        <v>0.0016789038520022</v>
       </c>
       <c r="J22">
         <v>7.721849366137377</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.101603248276959</v>
+        <v>5.101603248276945</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4628241538271425</v>
+        <v>0.4628241538270856</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,19 +1219,19 @@
         <v>0.03674671267319951</v>
       </c>
       <c r="E23">
-        <v>0.006158311036576158</v>
+        <v>0.00615831103657305</v>
       </c>
       <c r="F23">
-        <v>3.962839214257173</v>
+        <v>3.962839214257144</v>
       </c>
       <c r="G23">
-        <v>3.142571095956825</v>
+        <v>3.142571095956839</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001802824932803038</v>
+        <v>0.001802824932799041</v>
       </c>
       <c r="J23">
         <v>7.39682742656754</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.882890998077087</v>
+        <v>4.882890998077116</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3940445496600802</v>
+        <v>0.3940445496600091</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02654450995009228</v>
+        <v>0.02654450995008872</v>
       </c>
       <c r="E24">
-        <v>0.008318700972024917</v>
+        <v>0.008318700972024473</v>
       </c>
       <c r="F24">
         <v>3.228453227635839</v>
       </c>
       <c r="G24">
-        <v>2.551612771235824</v>
+        <v>2.551612771235838</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.002840131739393348</v>
+        <v>0.002840131739449969</v>
       </c>
       <c r="J24">
         <v>6.209381128260958</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.086217968278476</v>
+        <v>4.08621796827849</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3219921592166628</v>
+        <v>0.3219921592164638</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01795604595672629</v>
+        <v>0.01795604595662681</v>
       </c>
       <c r="E25">
-        <v>0.01099888629644186</v>
+        <v>0.0109988862964161</v>
       </c>
       <c r="F25">
         <v>2.535698457837839</v>
       </c>
       <c r="G25">
-        <v>1.996756981645788</v>
+        <v>1.996756981645774</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.004906991691792095</v>
+        <v>0.00490699169179476</v>
       </c>
       <c r="J25">
-        <v>4.994344006642791</v>
+        <v>4.99434400664282</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.275034428960481</v>
+        <v>3.275034428960495</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.270267299099487</v>
+        <v>0.2702672990993875</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01298776387065104</v>
+        <v>0.01298776387064393</v>
       </c>
       <c r="E2">
-        <v>0.01323362661300753</v>
+        <v>0.01323362661301952</v>
       </c>
       <c r="F2">
-        <v>2.083732631584155</v>
+        <v>2.083732631584184</v>
       </c>
       <c r="G2">
-        <v>1.636413922572984</v>
+        <v>1.636413922572956</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.007043911012132975</v>
+        <v>0.007043911012132531</v>
       </c>
       <c r="J2">
-        <v>4.135736557302494</v>
+        <v>4.135736557302522</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.704413655536641</v>
+        <v>2.704413655536655</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.235832815210415</v>
+        <v>0.2358328152103439</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01020665856882275</v>
+        <v>0.0102066585688263</v>
       </c>
       <c r="E3">
-        <v>0.0148953785092758</v>
+        <v>0.01489537850925249</v>
       </c>
       <c r="F3">
-        <v>1.803526108271996</v>
+        <v>1.803526108272024</v>
       </c>
       <c r="G3">
         <v>1.413818145743988</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.008800602259002588</v>
+        <v>0.008800602258989931</v>
       </c>
       <c r="J3">
         <v>3.568630919529937</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.328804108593005</v>
+        <v>2.328804108592976</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2149372472182876</v>
+        <v>0.2149372472184155</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.008721375415149168</v>
+        <v>0.00872137541525575</v>
       </c>
       <c r="E4">
-        <v>0.01598394082585242</v>
+        <v>0.01598394082586663</v>
       </c>
       <c r="F4">
-        <v>1.641673919212849</v>
+        <v>1.641673919212863</v>
       </c>
       <c r="G4">
         <v>1.285578896688321</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01001133881598948</v>
+        <v>0.01001133881601324</v>
       </c>
       <c r="J4">
-        <v>3.225687340308752</v>
+        <v>3.225687340308809</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.102198010556037</v>
+        <v>2.102198010556023</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2064766432093563</v>
+        <v>0.2064766432091716</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008163592488109828</v>
+        <v>0.008163592488202198</v>
       </c>
       <c r="E5">
-        <v>0.01644411156841286</v>
+        <v>0.01644411156841219</v>
       </c>
       <c r="F5">
-        <v>1.577938683465959</v>
+        <v>1.577938683465973</v>
       </c>
       <c r="G5">
-        <v>1.235156549033306</v>
+        <v>1.23515654903332</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01053535001652706</v>
+        <v>0.01053535001655181</v>
       </c>
       <c r="J5">
         <v>3.086999604061262</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2050748471577748</v>
+        <v>0.2050748471579453</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008073616596014688</v>
+        <v>0.008073616596000477</v>
       </c>
       <c r="E6">
-        <v>0.01652150746639669</v>
+        <v>0.01652150746643377</v>
       </c>
       <c r="F6">
-        <v>1.567480409511532</v>
+        <v>1.567480409511546</v>
       </c>
       <c r="G6">
         <v>1.226887199913861</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01062414137469248</v>
+        <v>0.01062414137467915</v>
       </c>
       <c r="J6">
-        <v>3.064027969351756</v>
+        <v>3.064027969351727</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.995527026088467</v>
+        <v>1.995527026088482</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2148229334963219</v>
+        <v>0.2148229334960234</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -611,28 +611,28 @@
         <v>0.008713670988736766</v>
       </c>
       <c r="E7">
-        <v>0.01599008047963268</v>
+        <v>0.01599008047962958</v>
       </c>
       <c r="F7">
-        <v>1.640805793536799</v>
+        <v>1.640805793536813</v>
       </c>
       <c r="G7">
-        <v>1.284891799239858</v>
+        <v>1.284891799239887</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01001828501465951</v>
+        <v>0.0100182850146795</v>
       </c>
       <c r="J7">
-        <v>3.223812956450388</v>
+        <v>3.223812956450416</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.100960641413366</v>
+        <v>2.10096064141338</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2583380871945593</v>
+        <v>0.258338087194744</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01197723150513141</v>
+        <v>0.01197723150492891</v>
       </c>
       <c r="E8">
-        <v>0.01379206349191442</v>
+        <v>0.01379206349192241</v>
       </c>
       <c r="F8">
         <v>1.984780511986799</v>
       </c>
       <c r="G8">
-        <v>1.55772859926752</v>
+        <v>1.557728599267534</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.007620530185467711</v>
+        <v>0.007620530185476149</v>
       </c>
       <c r="J8">
-        <v>3.938939844662571</v>
+        <v>3.938939844662599</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.573949313605752</v>
+        <v>2.573949313605709</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3460263124918441</v>
+        <v>0.3460263124919152</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02059793213211236</v>
+        <v>0.02059793213202354</v>
       </c>
       <c r="E9">
-        <v>0.01005311341265958</v>
+        <v>0.01005311341269599</v>
       </c>
       <c r="F9">
-        <v>2.758463136833853</v>
+        <v>2.758463136833768</v>
       </c>
       <c r="G9">
-        <v>2.174870819043136</v>
+        <v>2.174870819043093</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.004103690973757734</v>
+        <v>0.004103690973781049</v>
       </c>
       <c r="J9">
-        <v>5.396854527780107</v>
+        <v>5.396854527780079</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.543295273437778</v>
+        <v>3.543295273437749</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4125171921417063</v>
+        <v>0.4125171921415074</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02908137688590529</v>
+        <v>0.02908137688568502</v>
       </c>
       <c r="E10">
-        <v>0.007702626757077669</v>
+        <v>0.007702626757062569</v>
       </c>
       <c r="F10">
         <v>3.418395264078868</v>
       </c>
       <c r="G10">
-        <v>2.704206666717852</v>
+        <v>2.704206666717837</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.002472629464987275</v>
+        <v>0.002472629464988163</v>
       </c>
       <c r="J10">
         <v>6.525332924196277</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.297825119199473</v>
+        <v>4.297825119199416</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4433831714364942</v>
+        <v>0.4433831714363947</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03364864464064254</v>
+        <v>0.0336486446405182</v>
       </c>
       <c r="E11">
-        <v>0.00673259617418287</v>
+        <v>0.006732596174157335</v>
       </c>
       <c r="F11">
-        <v>3.747603428439646</v>
+        <v>3.747603428439675</v>
       </c>
       <c r="G11">
-        <v>2.969105696825821</v>
+        <v>2.969105696825835</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.002004198899314247</v>
+        <v>0.002004198899318688</v>
       </c>
       <c r="J11">
-        <v>7.058004169568704</v>
+        <v>7.058004169568733</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.65518705283101</v>
+        <v>4.655187052831053</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4551771996125495</v>
+        <v>0.4551771996120522</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03550704714074016</v>
+        <v>0.03550704714048436</v>
       </c>
       <c r="E12">
-        <v>0.006380890225537117</v>
+        <v>0.006380890225584412</v>
       </c>
       <c r="F12">
         <v>3.877433012544145</v>
       </c>
       <c r="G12">
-        <v>3.073714300258686</v>
+        <v>3.073714300258672</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.001873366409766319</v>
+        <v>0.001873366409786748</v>
       </c>
       <c r="J12">
         <v>7.263231821919106</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.793072805947205</v>
+        <v>4.793072805947219</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4526321420184587</v>
+        <v>0.4526321420184871</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03510056353855262</v>
+        <v>0.03510056353843538</v>
       </c>
       <c r="E13">
-        <v>0.006455917217978335</v>
+        <v>0.006455917217982332</v>
       </c>
       <c r="F13">
         <v>3.849223583545893</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.001899339555500479</v>
+        <v>0.001899339555521795</v>
       </c>
       <c r="J13">
-        <v>7.21886226125639</v>
+        <v>7.218862261256476</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -874,31 +874,31 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03379877213095384</v>
+        <v>0.03379877213073001</v>
       </c>
       <c r="E14">
-        <v>0.006703339328459901</v>
+        <v>0.006703339328490321</v>
       </c>
       <c r="F14">
-        <v>3.758174465738648</v>
+        <v>3.758174465738591</v>
       </c>
       <c r="G14">
-        <v>2.977620276971592</v>
+        <v>2.977620276971535</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.001992454783843023</v>
+        <v>0.001992454783847908</v>
       </c>
       <c r="J14">
-        <v>7.074813021347012</v>
+        <v>7.074813021346955</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.66647618418466</v>
+        <v>4.666476184184617</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4392932798921265</v>
+        <v>0.4392932798923397</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03301909925065516</v>
+        <v>0.03301909925052726</v>
       </c>
       <c r="E15">
-        <v>0.006856971674470413</v>
+        <v>0.006856971674469525</v>
       </c>
       <c r="F15">
         <v>3.703110727802198</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.002055796219054162</v>
+        <v>0.002055796219038619</v>
       </c>
       <c r="J15">
         <v>6.987061624759633</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4105138487004751</v>
+        <v>0.410513848700873</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02879929671089343</v>
+        <v>0.02879929671066606</v>
       </c>
       <c r="E16">
-        <v>0.007768127490626497</v>
+        <v>0.007768127490624943</v>
       </c>
       <c r="F16">
-        <v>3.397543995879062</v>
+        <v>3.397543995879005</v>
       </c>
       <c r="G16">
-        <v>2.687446405925897</v>
+        <v>2.687446405925911</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0.002509326644708487</v>
       </c>
       <c r="J16">
-        <v>6.490969608583185</v>
+        <v>6.490969608583242</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.274797352388404</v>
+        <v>4.27479735238839</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3930281608913759</v>
+        <v>0.3930281608916033</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02640905995451703</v>
+        <v>0.02640905995452059</v>
       </c>
       <c r="E17">
-        <v>0.008353395003244835</v>
+        <v>0.008353395003200426</v>
       </c>
       <c r="F17">
-        <v>3.218152574050407</v>
+        <v>3.218152574050379</v>
       </c>
       <c r="G17">
-        <v>2.543342846437469</v>
+        <v>2.543342846437497</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.002862250950112388</v>
+        <v>0.002862250950095957</v>
       </c>
       <c r="J17">
-        <v>6.192054919344429</v>
+        <v>6.192054919344372</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.074621679302297</v>
+        <v>4.074621679302325</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3830279601902191</v>
+        <v>0.3830279601902618</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02509893721996193</v>
+        <v>0.02509893721986245</v>
       </c>
       <c r="E18">
-        <v>0.008699270262976011</v>
+        <v>0.008699270263003323</v>
       </c>
       <c r="F18">
-        <v>3.117629548115872</v>
+        <v>3.117629548115843</v>
       </c>
       <c r="G18">
         <v>2.462666978590477</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.003090475685227245</v>
+        <v>0.003090475685244121</v>
       </c>
       <c r="J18">
-        <v>6.02189273979684</v>
+        <v>6.021892739796868</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3796514074238075</v>
+        <v>0.3796514074233954</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02466574782298281</v>
+        <v>0.02466574782297926</v>
       </c>
       <c r="E19">
-        <v>0.008817928028833633</v>
+        <v>0.008817928028776123</v>
       </c>
       <c r="F19">
-        <v>3.084024167008266</v>
+        <v>3.084024167008295</v>
       </c>
       <c r="G19">
-        <v>2.435708692325818</v>
+        <v>2.435708692325832</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.003171888384917665</v>
+        <v>0.003171888384917221</v>
       </c>
       <c r="J19">
-        <v>5.964562222059271</v>
+        <v>5.964562222059243</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3948835199682321</v>
+        <v>0.3948835199683884</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0266566372104009</v>
+        <v>0.02665663721040445</v>
       </c>
       <c r="E20">
-        <v>0.008290126413665444</v>
+        <v>0.008290126413666554</v>
       </c>
       <c r="F20">
-        <v>3.23696753324711</v>
+        <v>3.236967533247082</v>
       </c>
       <c r="G20">
         <v>2.558448938285821</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.002822023073308699</v>
+        <v>0.002822023073310032</v>
       </c>
       <c r="J20">
         <v>6.223687357679523</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.095793627978921</v>
+        <v>4.095793627978935</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4467805281594508</v>
+        <v>0.4467805281595361</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03417738950515314</v>
+        <v>0.03417738950504656</v>
       </c>
       <c r="E21">
-        <v>0.006630229377470931</v>
+        <v>0.006630229377471375</v>
       </c>
       <c r="F21">
         <v>3.784768427883051</v>
       </c>
       <c r="G21">
-        <v>2.999043022116652</v>
+        <v>2.999043022116666</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001963775100815468</v>
+        <v>0.001963775100815912</v>
       </c>
       <c r="J21">
-        <v>7.117021553628121</v>
+        <v>7.117021553628149</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.694827501633611</v>
+        <v>4.694827501633625</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.481324737224881</v>
+        <v>0.4813247372247247</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03986229563436439</v>
+        <v>0.0398622956341157</v>
       </c>
       <c r="E22">
-        <v>0.005637280494739105</v>
+        <v>0.005637280494759533</v>
       </c>
       <c r="F22">
-        <v>4.173556855385385</v>
+        <v>4.173556855385442</v>
       </c>
       <c r="G22">
-        <v>3.312595543967262</v>
+        <v>3.312595543967291</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.0016789038520022</v>
+        <v>0.001678903852007529</v>
       </c>
       <c r="J22">
         <v>7.721849366137377</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.101603248276945</v>
+        <v>5.101603248276959</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4628241538270856</v>
+        <v>0.4628241538271425</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,19 +1219,19 @@
         <v>0.03674671267319951</v>
       </c>
       <c r="E23">
-        <v>0.00615831103657305</v>
+        <v>0.006158311036576158</v>
       </c>
       <c r="F23">
-        <v>3.962839214257144</v>
+        <v>3.962839214257173</v>
       </c>
       <c r="G23">
-        <v>3.142571095956839</v>
+        <v>3.142571095956825</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001802824932799041</v>
+        <v>0.001802824932803038</v>
       </c>
       <c r="J23">
         <v>7.39682742656754</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.882890998077116</v>
+        <v>4.882890998077087</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3940445496600091</v>
+        <v>0.3940445496600802</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02654450995008872</v>
+        <v>0.02654450995009228</v>
       </c>
       <c r="E24">
-        <v>0.008318700972024473</v>
+        <v>0.008318700972024917</v>
       </c>
       <c r="F24">
         <v>3.228453227635839</v>
       </c>
       <c r="G24">
-        <v>2.551612771235838</v>
+        <v>2.551612771235824</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.002840131739449969</v>
+        <v>0.002840131739393348</v>
       </c>
       <c r="J24">
         <v>6.209381128260958</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.08621796827849</v>
+        <v>4.086217968278476</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3219921592164638</v>
+        <v>0.3219921592166628</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01795604595662681</v>
+        <v>0.01795604595672629</v>
       </c>
       <c r="E25">
-        <v>0.0109988862964161</v>
+        <v>0.01099888629644186</v>
       </c>
       <c r="F25">
         <v>2.535698457837839</v>
       </c>
       <c r="G25">
-        <v>1.996756981645774</v>
+        <v>1.996756981645788</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.00490699169179476</v>
+        <v>0.004906991691792095</v>
       </c>
       <c r="J25">
-        <v>4.99434400664282</v>
+        <v>4.994344006642791</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.275034428960495</v>
+        <v>3.275034428960481</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2702672990993875</v>
+        <v>0.2702627325962794</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01298776387064393</v>
+        <v>0.01287032561424795</v>
       </c>
       <c r="E2">
-        <v>0.01323362661301952</v>
+        <v>0.01321024868948384</v>
       </c>
       <c r="F2">
-        <v>2.083732631584184</v>
+        <v>2.079389332527342</v>
       </c>
       <c r="G2">
-        <v>1.636413922572956</v>
+        <v>0.5451011824725924</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.090680182956262</v>
       </c>
       <c r="I2">
-        <v>0.007043911012132531</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.135736557302522</v>
+        <v>0.007029988831364298</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.135135366606363</v>
       </c>
       <c r="L2">
-        <v>2.704413655536655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2.704256119627715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2358328152103439</v>
+        <v>0.2358297865815615</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0102066585688263</v>
+        <v>0.01010868572701895</v>
       </c>
       <c r="E3">
-        <v>0.01489537850925249</v>
+        <v>0.01487576650135503</v>
       </c>
       <c r="F3">
-        <v>1.803526108272024</v>
+        <v>1.799802235958424</v>
       </c>
       <c r="G3">
-        <v>1.413818145743988</v>
+        <v>0.4664938321934358</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.94746635584454</v>
       </c>
       <c r="I3">
-        <v>0.008800602258989931</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.568630919529937</v>
+        <v>0.00878778329215435</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.568193887675932</v>
       </c>
       <c r="L3">
-        <v>2.328804108592976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.32871878839633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2149372472184155</v>
+        <v>0.2149349990775988</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00872137541525575</v>
+        <v>0.008634310370691622</v>
       </c>
       <c r="E4">
-        <v>0.01598394082586663</v>
+        <v>0.01596698051086021</v>
       </c>
       <c r="F4">
-        <v>1.641673919212863</v>
+        <v>1.638307415315865</v>
       </c>
       <c r="G4">
-        <v>1.285578896688321</v>
+        <v>0.4209972903794608</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.8651729380498523</v>
       </c>
       <c r="I4">
-        <v>0.01001133881601324</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3.225687340308809</v>
+        <v>0.009999356835612039</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.2253380841926</v>
       </c>
       <c r="L4">
-        <v>2.102198010556023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.102148473443123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2064766432091716</v>
+        <v>0.2064746793455896</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008163592488202198</v>
+        <v>0.008080751801930575</v>
       </c>
       <c r="E5">
-        <v>0.01644411156841219</v>
+        <v>0.01642831159544977</v>
       </c>
       <c r="F5">
-        <v>1.577938683465973</v>
+        <v>1.574713027895115</v>
       </c>
       <c r="G5">
-        <v>1.23515654903332</v>
+        <v>0.4030568098173575</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8328686527606948</v>
       </c>
       <c r="I5">
-        <v>0.01053535001655181</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>3.086999604061262</v>
+        <v>0.01052374678991641</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.086683437670843</v>
       </c>
       <c r="L5">
-        <v>2.010678893311692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.010642168171117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2050748471579453</v>
+        <v>0.2050729286517452</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008073616596000477</v>
+        <v>0.007991465133862619</v>
       </c>
       <c r="E6">
-        <v>0.01652150746643377</v>
+        <v>0.01650590483143333</v>
       </c>
       <c r="F6">
-        <v>1.567480409511546</v>
+        <v>1.56427787877702</v>
       </c>
       <c r="G6">
-        <v>1.226887199913861</v>
+        <v>0.4001114359457745</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8275738614288599</v>
       </c>
       <c r="I6">
-        <v>0.01062414137467915</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3.064027969351727</v>
+        <v>0.01061260324446911</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.063717151090486</v>
       </c>
       <c r="L6">
-        <v>1.995527026088482</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1.995492331370784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2148229334960234</v>
+        <v>0.2148206893172357</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008713670988736766</v>
+        <v>0.008626663758462882</v>
       </c>
       <c r="E7">
-        <v>0.01599008047962958</v>
+        <v>0.01597313549746215</v>
       </c>
       <c r="F7">
-        <v>1.640805793536813</v>
+        <v>1.637441207341126</v>
       </c>
       <c r="G7">
-        <v>1.284891799239887</v>
+        <v>0.4207530292188295</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.8647325176492018</v>
       </c>
       <c r="I7">
-        <v>0.0100182850146795</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>3.223812956450416</v>
+        <v>0.01000630799291469</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.223464156732746</v>
       </c>
       <c r="L7">
-        <v>2.10096064141338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.100911283797714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.258338087194744</v>
+        <v>0.2583340898159747</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01197723150492891</v>
+        <v>0.01186674907017604</v>
       </c>
       <c r="E8">
-        <v>0.01379206349192241</v>
+        <v>0.01376991006585082</v>
       </c>
       <c r="F8">
-        <v>1.984780511986799</v>
+        <v>1.980656210012754</v>
       </c>
       <c r="G8">
-        <v>1.557728599267534</v>
+        <v>0.5173606012010481</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.040008712210721</v>
       </c>
       <c r="I8">
-        <v>0.007620530185476149</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>3.938939844662599</v>
+        <v>0.007606953775169956</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.938398350336826</v>
       </c>
       <c r="L8">
-        <v>2.573949313605709</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.573818706720616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3460263124919152</v>
+        <v>0.3460171594227859</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02059793213202354</v>
+        <v>0.02043078886657668</v>
       </c>
       <c r="E9">
-        <v>0.01005311341269599</v>
+        <v>0.01002372512958005</v>
       </c>
       <c r="F9">
-        <v>2.758463136833768</v>
+        <v>2.752610772274409</v>
       </c>
       <c r="G9">
-        <v>2.174870819043093</v>
+        <v>0.7339135469265585</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.438458389109343</v>
       </c>
       <c r="I9">
-        <v>0.004103690973781049</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>5.396854527780079</v>
+        <v>0.004088354240337155</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>5.395797983414269</v>
       </c>
       <c r="L9">
-        <v>3.543295273437749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.542915521536017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4125171921415074</v>
+        <v>0.4125024356660987</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02908137688568502</v>
+        <v>0.02886186767613097</v>
       </c>
       <c r="E10">
-        <v>0.007702626757062569</v>
+        <v>0.007670201765342499</v>
       </c>
       <c r="F10">
-        <v>3.418395264078868</v>
+        <v>3.411024857308121</v>
       </c>
       <c r="G10">
-        <v>2.704206666717837</v>
+        <v>0.9182909105106063</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.781567986044962</v>
       </c>
       <c r="I10">
-        <v>0.002472629464988163</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6.525332924196277</v>
+        <v>0.002456975479851131</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>6.52375129530563</v>
       </c>
       <c r="L10">
-        <v>4.297825119199416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4.297166498331322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4433831714363947</v>
+        <v>0.4433652213418782</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0336486446405182</v>
+        <v>0.03340160921082713</v>
       </c>
       <c r="E11">
-        <v>0.006732596174157335</v>
+        <v>0.006699411325543192</v>
       </c>
       <c r="F11">
-        <v>3.747603428439675</v>
+        <v>3.739454787581337</v>
       </c>
       <c r="G11">
-        <v>2.969105696825835</v>
+        <v>1.010229102973497</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.953591851752819</v>
       </c>
       <c r="I11">
-        <v>0.002004198899318688</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7.058004169568733</v>
+        <v>0.001988631478571534</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>7.056130934742328</v>
       </c>
       <c r="L11">
-        <v>4.655187052831053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>4.654367041293753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4551771996120522</v>
+        <v>0.4551579175236782</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03550704714048436</v>
+        <v>0.03524889240575391</v>
       </c>
       <c r="E12">
-        <v>0.006380890225584412</v>
+        <v>0.006347520052141675</v>
       </c>
       <c r="F12">
-        <v>3.877433012544145</v>
+        <v>3.868973022761821</v>
       </c>
       <c r="G12">
-        <v>3.073714300258672</v>
+        <v>1.046484666366894</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.021572080488255</v>
       </c>
       <c r="I12">
-        <v>0.001873366409786748</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7.263231821919106</v>
+        <v>0.001857864812689236</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>7.261238043913664</v>
       </c>
       <c r="L12">
-        <v>4.793072805947219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>4.792185037373869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4526321420184871</v>
+        <v>0.4526131528402146</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03510056353843538</v>
+        <v>0.0348448376748145</v>
       </c>
       <c r="E13">
-        <v>0.006455917217982332</v>
+        <v>0.006422582168239988</v>
       </c>
       <c r="F13">
-        <v>3.849223583545893</v>
+        <v>3.84083146821726</v>
       </c>
       <c r="G13">
-        <v>3.050978332519605</v>
+        <v>1.038607068862817</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.006794884370393</v>
       </c>
       <c r="I13">
-        <v>0.001899339555521795</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>7.218862261256476</v>
+        <v>0.001883822340275287</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>7.216894944466816</v>
       </c>
       <c r="L13">
-        <v>4.76325292500988</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>4.762380077760341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4443512471321753</v>
+        <v>0.4443331901190106</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03379877213073001</v>
+        <v>0.03355083698030725</v>
       </c>
       <c r="E14">
-        <v>0.006703339328490321</v>
+        <v>0.006670137096956186</v>
       </c>
       <c r="F14">
-        <v>3.758174465738591</v>
+        <v>3.75000057177607</v>
       </c>
       <c r="G14">
-        <v>2.977620276971535</v>
+        <v>1.013181136264066</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.95912411696203</v>
       </c>
       <c r="I14">
-        <v>0.001992454783847908</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>7.074813021346955</v>
+        <v>0.001976892125322482</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>7.072930089847887</v>
       </c>
       <c r="L14">
-        <v>4.666476184184617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>4.665650743094076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4392932798923397</v>
+        <v>0.4392757768271451</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03301909925052726</v>
+        <v>0.03277583978126586</v>
       </c>
       <c r="E15">
-        <v>0.006856971674469525</v>
+        <v>0.006823864564406534</v>
       </c>
       <c r="F15">
-        <v>3.703110727802198</v>
+        <v>3.695068189344539</v>
       </c>
       <c r="G15">
-        <v>2.933274179248443</v>
+        <v>0.9978041586180808</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.930312592507249</v>
       </c>
       <c r="I15">
-        <v>0.002055796219038619</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6.987061624759633</v>
+        <v>0.002040209985452179</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>6.985228973775548</v>
       </c>
       <c r="L15">
-        <v>4.607548997110015</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>4.606751668849185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.410513848700873</v>
+        <v>0.4104992856202045</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02879929671066606</v>
+        <v>0.02858149908034946</v>
       </c>
       <c r="E16">
-        <v>0.007768127490624943</v>
+        <v>0.007735765725140675</v>
       </c>
       <c r="F16">
-        <v>3.397543995879005</v>
+        <v>3.390222368340403</v>
       </c>
       <c r="G16">
-        <v>2.687446405925911</v>
+        <v>0.9124672903802207</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.770690318250686</v>
       </c>
       <c r="I16">
-        <v>0.002509326644708487</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>6.490969608583242</v>
+        <v>0.00249367168196768</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>6.489405777843132</v>
       </c>
       <c r="L16">
-        <v>4.27479735238839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4.274148453362187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3930281608916033</v>
+        <v>0.3930152178510014</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02640905995452059</v>
+        <v>0.02620583285478872</v>
       </c>
       <c r="E17">
-        <v>0.008353395003200426</v>
+        <v>0.008321658227497641</v>
       </c>
       <c r="F17">
-        <v>3.218152574050379</v>
+        <v>3.211248262464352</v>
       </c>
       <c r="G17">
-        <v>2.543342846437497</v>
+        <v>0.8623607214307469</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.677199034192796</v>
       </c>
       <c r="I17">
-        <v>0.002862250950095957</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6.192054919344372</v>
+        <v>0.002846613457052838</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>6.190640940652344</v>
       </c>
       <c r="L17">
-        <v>4.074621679302325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.074053968523401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3830279601902618</v>
+        <v>0.3830158905316665</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02509893721986245</v>
+        <v>0.02490375421421831</v>
       </c>
       <c r="E18">
-        <v>0.008699270263003323</v>
+        <v>0.008667950563002069</v>
       </c>
       <c r="F18">
-        <v>3.117629548115843</v>
+        <v>3.110957318061082</v>
       </c>
       <c r="G18">
-        <v>2.462666978590477</v>
+        <v>0.8342795444253994</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.624886499709874</v>
       </c>
       <c r="I18">
-        <v>0.003090475685244121</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>6.021892739796868</v>
+        <v>0.003074870067089508</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6.020560179338247</v>
       </c>
       <c r="L18">
-        <v>3.960777245045236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>3.960253108458346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3796514074233954</v>
+        <v>0.3796396242063764</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02466574782297926</v>
+        <v>0.0244732347822918</v>
       </c>
       <c r="E19">
-        <v>0.008817928028776123</v>
+        <v>0.008786759076689465</v>
       </c>
       <c r="F19">
-        <v>3.084024167008295</v>
+        <v>3.077429253545859</v>
       </c>
       <c r="G19">
-        <v>2.435708692325832</v>
+        <v>0.8248911351774666</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.607410767599106</v>
       </c>
       <c r="I19">
-        <v>0.003171888384917221</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5.964562222059243</v>
+        <v>0.003156297280713094</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5.963256472803238</v>
       </c>
       <c r="L19">
-        <v>3.92243906687284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>3.921929189619149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3948835199683884</v>
+        <v>0.3948704107054084</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02665663721040445</v>
+        <v>0.02645189489717481</v>
       </c>
       <c r="E20">
-        <v>0.008290126413666554</v>
+        <v>0.008258317058690956</v>
       </c>
       <c r="F20">
-        <v>3.236967533247082</v>
+        <v>3.230019645368429</v>
       </c>
       <c r="G20">
-        <v>2.558448938285821</v>
+        <v>0.8676163674785755</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.686996574804382</v>
       </c>
       <c r="I20">
-        <v>0.002822023073310032</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>6.223687357679523</v>
+        <v>0.002806381456165852</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>6.222257936643416</v>
       </c>
       <c r="L20">
-        <v>4.095793627978935</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.09521760816574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4467805281595361</v>
+        <v>0.4467622009646703</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03417738950504656</v>
+        <v>0.0339271864847035</v>
       </c>
       <c r="E21">
-        <v>0.006630229377471375</v>
+        <v>0.006596985238268571</v>
       </c>
       <c r="F21">
-        <v>3.784768427883051</v>
+        <v>3.776530927960181</v>
       </c>
       <c r="G21">
-        <v>2.999043022116666</v>
+        <v>1.020607660075299</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.973044100740736</v>
       </c>
       <c r="I21">
-        <v>0.001963775100815912</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>7.117021553628149</v>
+        <v>0.001948224905980567</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>7.11511413536968</v>
       </c>
       <c r="L21">
-        <v>4.694827501633625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>4.693988332812552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4813247372247247</v>
+        <v>0.4813022628657677</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0398622956341157</v>
+        <v>0.03957820651465482</v>
       </c>
       <c r="E22">
-        <v>0.005637280494759533</v>
+        <v>0.005603703562591544</v>
       </c>
       <c r="F22">
-        <v>4.173556855385442</v>
+        <v>4.164376479327672</v>
       </c>
       <c r="G22">
-        <v>3.312595543967291</v>
+        <v>1.129179512646417</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.176900331712901</v>
       </c>
       <c r="I22">
-        <v>0.001678903852007529</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>7.721849366137377</v>
+        <v>0.001663603949632275</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>7.719568670658276</v>
       </c>
       <c r="L22">
-        <v>5.101603248276959</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>5.100552115926064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4628241538271425</v>
+        <v>0.4628039730841778</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03674671267319951</v>
+        <v>0.0364811604715527</v>
       </c>
       <c r="E23">
-        <v>0.006158311036576158</v>
+        <v>0.006124851386711372</v>
       </c>
       <c r="F23">
-        <v>3.962839214257173</v>
+        <v>3.954172951065857</v>
       </c>
       <c r="G23">
-        <v>3.142571095956825</v>
+        <v>1.070334707855494</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.066332481897774</v>
       </c>
       <c r="I23">
-        <v>0.001802824932803038</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>7.39682742656754</v>
+        <v>0.001787374744479209</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>7.39475261721978</v>
       </c>
       <c r="L23">
-        <v>4.882890998077087</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>4.881957377399459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3940445496600802</v>
+        <v>0.3940315157246204</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02654450995009228</v>
+        <v>0.02634045368958837</v>
       </c>
       <c r="E24">
-        <v>0.008318700972024917</v>
+        <v>0.008286924251123873</v>
       </c>
       <c r="F24">
-        <v>3.228453227635839</v>
+        <v>3.221525064730713</v>
       </c>
       <c r="G24">
-        <v>2.551612771235824</v>
+        <v>0.8652380495567229</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.682562670542268</v>
       </c>
       <c r="I24">
-        <v>0.002840131739393348</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>6.209381128260958</v>
+        <v>0.00282449191879075</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>6.207958703274784</v>
       </c>
       <c r="L24">
-        <v>4.086217968278476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.085645714523977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3219921592166628</v>
+        <v>0.3219846522137289</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01795604595672629</v>
+        <v>0.01780574441045246</v>
       </c>
       <c r="E25">
-        <v>0.01099888629644186</v>
+        <v>0.01097109273977082</v>
       </c>
       <c r="F25">
-        <v>2.535698457837839</v>
+        <v>2.530348136566403</v>
       </c>
       <c r="G25">
-        <v>1.996756981645788</v>
+        <v>0.6716262805610427</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.323249527100288</v>
       </c>
       <c r="I25">
-        <v>0.004906991691792095</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4.994344006642791</v>
+        <v>0.004891968687461334</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4.99344697554892</v>
       </c>
       <c r="L25">
-        <v>3.275034428960481</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.274735256351875</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2702627325962794</v>
+        <v>2.301003923004487</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01287032561424795</v>
+        <v>0.3194287198066235</v>
       </c>
       <c r="E2">
-        <v>0.01321024868948384</v>
+        <v>0.4018880331607022</v>
       </c>
       <c r="F2">
-        <v>2.079389332527342</v>
+        <v>2.201466393767106</v>
       </c>
       <c r="G2">
-        <v>0.5451011824725924</v>
+        <v>0.0007984244983461829</v>
       </c>
       <c r="H2">
-        <v>1.090680182956262</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007029988831364298</v>
+        <v>0.5658778425992779</v>
       </c>
       <c r="K2">
-        <v>4.135135366606363</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.378846292302001</v>
       </c>
       <c r="M2">
-        <v>2.704256119627715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.8688991475213967</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.973313869074559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2358297865815615</v>
+        <v>2.022288750041184</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01010868572701895</v>
+        <v>0.2758162284045085</v>
       </c>
       <c r="E3">
-        <v>0.01487576650135503</v>
+        <v>0.3550056770296734</v>
       </c>
       <c r="F3">
-        <v>1.799802235958424</v>
+        <v>2.052840513757445</v>
       </c>
       <c r="G3">
-        <v>0.4664938321934358</v>
+        <v>0.0008095583655452852</v>
       </c>
       <c r="H3">
-        <v>0.94746635584454</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00878778329215435</v>
+        <v>0.5070665277384734</v>
       </c>
       <c r="K3">
-        <v>3.568193887675932</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.194086344731062</v>
       </c>
       <c r="M3">
-        <v>2.32871878839633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.7571590550345206</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.803029586111265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2149349990775988</v>
+        <v>1.853854283966712</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.008634310370691622</v>
+        <v>0.249556145268528</v>
       </c>
       <c r="E4">
-        <v>0.01596698051086021</v>
+        <v>0.326523976110515</v>
       </c>
       <c r="F4">
-        <v>1.638307415315865</v>
+        <v>1.968962624710102</v>
       </c>
       <c r="G4">
-        <v>0.4209972903794608</v>
+        <v>0.0008165551893978356</v>
       </c>
       <c r="H4">
-        <v>0.8651729380498523</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.009999356835612039</v>
+        <v>0.4712299128213573</v>
       </c>
       <c r="K4">
-        <v>3.2253380841926</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.082125182485186</v>
       </c>
       <c r="M4">
-        <v>2.102148473443123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6895276178198131</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.705043657046403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2064746793455896</v>
+        <v>1.785805188463286</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008080751801930575</v>
+        <v>0.238961613976457</v>
       </c>
       <c r="E5">
-        <v>0.01642831159544977</v>
+        <v>0.3149769858790208</v>
       </c>
       <c r="F5">
-        <v>1.574713027895115</v>
+        <v>1.936464179978998</v>
       </c>
       <c r="G5">
-        <v>0.4030568098173575</v>
+        <v>0.000819449713347775</v>
       </c>
       <c r="H5">
-        <v>0.8328686527606948</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01052374678991641</v>
+        <v>0.4566781581213775</v>
       </c>
       <c r="K5">
-        <v>3.086683437670843</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.036811356239127</v>
       </c>
       <c r="M5">
-        <v>2.010642168171117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.6621767834991985</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.66659784891398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2050729286517452</v>
+        <v>1.774538840377659</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007991465133862619</v>
+        <v>0.2372082000728852</v>
       </c>
       <c r="E6">
-        <v>0.01650590483143333</v>
+        <v>0.3130627516333746</v>
       </c>
       <c r="F6">
-        <v>1.56427787877702</v>
+        <v>1.931164717522208</v>
       </c>
       <c r="G6">
-        <v>0.4001114359457745</v>
+        <v>0.0008199330388319308</v>
       </c>
       <c r="H6">
-        <v>0.8275738614288599</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01061260324446911</v>
+        <v>0.454264530276518</v>
       </c>
       <c r="K6">
-        <v>3.063717151090486</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.029304152766798</v>
       </c>
       <c r="M6">
-        <v>1.995492331370784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.6576468616549391</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.660299010430336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2148206893172357</v>
+        <v>1.85293427540006</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008626663758462882</v>
+        <v>0.249412861195637</v>
       </c>
       <c r="E7">
-        <v>0.01597313549746215</v>
+        <v>0.3263680293915314</v>
       </c>
       <c r="F7">
-        <v>1.637441207341126</v>
+        <v>1.968517743346268</v>
       </c>
       <c r="G7">
-        <v>0.4207530292188295</v>
+        <v>0.0008165940471301925</v>
       </c>
       <c r="H7">
-        <v>0.8647325176492018</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01000630799291469</v>
+        <v>0.4710334733510138</v>
       </c>
       <c r="K7">
-        <v>3.223464156732746</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.081512880710619</v>
       </c>
       <c r="M7">
-        <v>2.100911283797714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.6891579518305448</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.704519363182413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2583340898159747</v>
+        <v>2.204286524014833</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01186674907017604</v>
+        <v>0.3042685101836895</v>
       </c>
       <c r="E8">
-        <v>0.01376991006585082</v>
+        <v>0.3856490093078619</v>
       </c>
       <c r="F8">
-        <v>1.980656210012754</v>
+        <v>2.148578911349233</v>
       </c>
       <c r="G8">
-        <v>0.5173606012010481</v>
+        <v>0.0008022319520454471</v>
       </c>
       <c r="H8">
-        <v>1.040008712210721</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.007606953775169956</v>
+        <v>0.5455320873674054</v>
       </c>
       <c r="K8">
-        <v>3.938398350336826</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.314794316870746</v>
       </c>
       <c r="M8">
-        <v>2.573818706720616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.8301452625198564</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.9131299595103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3460171594227859</v>
+        <v>2.919251120120407</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02043078886657668</v>
+        <v>0.417179014889669</v>
       </c>
       <c r="E9">
-        <v>0.01002372512958005</v>
+        <v>0.5051967445073942</v>
       </c>
       <c r="F9">
-        <v>2.752610772274409</v>
+        <v>2.569078674975245</v>
       </c>
       <c r="G9">
-        <v>0.7339135469265585</v>
+        <v>0.0007751949829336658</v>
       </c>
       <c r="H9">
-        <v>1.438458389109343</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.004088354240337155</v>
+        <v>0.694677253268182</v>
       </c>
       <c r="K9">
-        <v>5.395797983414269</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.787192627869615</v>
       </c>
       <c r="M9">
-        <v>3.542915521536017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.11624014741146</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.382931344948474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4125024356660987</v>
+        <v>3.467686973810828</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02886186767613097</v>
+        <v>0.5054031560197529</v>
       </c>
       <c r="E10">
-        <v>0.007670201765342499</v>
+        <v>0.5964900286819699</v>
       </c>
       <c r="F10">
-        <v>3.411024857308121</v>
+        <v>2.933393697889557</v>
       </c>
       <c r="G10">
-        <v>0.9182909105106063</v>
+        <v>0.0007557812735149013</v>
       </c>
       <c r="H10">
-        <v>1.781567986044962</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.002456975479851131</v>
+        <v>0.807563594366755</v>
       </c>
       <c r="K10">
-        <v>6.52375129530563</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2.148522045311068</v>
       </c>
       <c r="M10">
-        <v>4.297166498331322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.335307994060713</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.779003854928334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4433652213418782</v>
+        <v>3.72416910727037</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03340160921082713</v>
+        <v>0.5472400257418712</v>
       </c>
       <c r="E11">
-        <v>0.006699411325543192</v>
+        <v>0.6391736644663979</v>
       </c>
       <c r="F11">
-        <v>3.739454787581337</v>
+        <v>3.115029299237762</v>
       </c>
       <c r="G11">
-        <v>1.010229102973497</v>
+        <v>0.0007469834435973339</v>
       </c>
       <c r="H11">
-        <v>1.953591851752819</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.001988631478571534</v>
+        <v>0.8600354188191659</v>
       </c>
       <c r="K11">
-        <v>7.056130934742328</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.31739503425058</v>
       </c>
       <c r="M11">
-        <v>4.654367041293753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.437704947672145</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.974020611796306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4551579175236782</v>
+        <v>3.822492752047708</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03524889240575391</v>
+        <v>0.5633848350125561</v>
       </c>
       <c r="E12">
-        <v>0.006347520052141675</v>
+        <v>0.6555437385001497</v>
       </c>
       <c r="F12">
-        <v>3.868973022761821</v>
+        <v>3.186490201636559</v>
       </c>
       <c r="G12">
-        <v>1.046484666366894</v>
+        <v>0.0007436503402715706</v>
       </c>
       <c r="H12">
-        <v>2.021572080488255</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.001857864812689236</v>
+        <v>0.8801066405633264</v>
       </c>
       <c r="K12">
-        <v>7.261238043913664</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.382131232334103</v>
       </c>
       <c r="M12">
-        <v>4.792185037373869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.476955373256118</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>3.050386260183458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4526131528402146</v>
+        <v>3.801260226043667</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0348448376748145</v>
+        <v>0.5598932962109586</v>
       </c>
       <c r="E13">
-        <v>0.006422582168239988</v>
+        <v>0.6520082237841152</v>
       </c>
       <c r="F13">
-        <v>3.84083146821726</v>
+        <v>3.170973649438139</v>
       </c>
       <c r="G13">
-        <v>1.038607068862817</v>
+        <v>0.0007443683666069411</v>
       </c>
       <c r="H13">
-        <v>2.006794884370393</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.001883822340275287</v>
+        <v>0.8757742684411767</v>
       </c>
       <c r="K13">
-        <v>7.216894944466816</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2.368151602116029</v>
       </c>
       <c r="M13">
-        <v>4.762380077760341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.468479536789303</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>3.033820763105837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4443331901190106</v>
+        <v>3.732232992397371</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03355083698030725</v>
+        <v>0.5485618476716638</v>
       </c>
       <c r="E14">
-        <v>0.006670137096956186</v>
+        <v>0.640516036370208</v>
       </c>
       <c r="F14">
-        <v>3.75000057177607</v>
+        <v>3.120852235060397</v>
       </c>
       <c r="G14">
-        <v>1.013181136264066</v>
+        <v>0.0007467092990552063</v>
       </c>
       <c r="H14">
-        <v>1.95912411696203</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.001976892125322482</v>
+        <v>0.8616823985166917</v>
       </c>
       <c r="K14">
-        <v>7.072930089847887</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2.322704242763194</v>
       </c>
       <c r="M14">
-        <v>4.665650743094076</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.440924074617129</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.980250375028177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4392757768271451</v>
+        <v>3.690114301932113</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03277583978126586</v>
+        <v>0.5416622333209773</v>
       </c>
       <c r="E15">
-        <v>0.006823864564406534</v>
+        <v>0.6335050005747433</v>
       </c>
       <c r="F15">
-        <v>3.695068189344539</v>
+        <v>3.090513186088401</v>
       </c>
       <c r="G15">
-        <v>0.9978041586180808</v>
+        <v>0.0007481427763830282</v>
       </c>
       <c r="H15">
-        <v>1.930312592507249</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.002040209985452179</v>
+        <v>0.8530782582340919</v>
       </c>
       <c r="K15">
-        <v>6.985228973775548</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2.294973580885994</v>
       </c>
       <c r="M15">
-        <v>4.606751668849185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.424110033921039</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.94777729051151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4104992856202045</v>
+        <v>3.451081871393683</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02858149908034946</v>
+        <v>0.5027079379854911</v>
       </c>
       <c r="E16">
-        <v>0.007735765725140675</v>
+        <v>0.5937270884627495</v>
       </c>
       <c r="F16">
-        <v>3.390222368340403</v>
+        <v>2.92187545145984</v>
       </c>
       <c r="G16">
-        <v>0.9124672903802207</v>
+        <v>0.0007563563867501653</v>
       </c>
       <c r="H16">
-        <v>1.770690318250686</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.00249367168196768</v>
+        <v>0.8041602428838246</v>
       </c>
       <c r="K16">
-        <v>6.489405777843132</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2.137587842131154</v>
       </c>
       <c r="M16">
-        <v>4.274148453362187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.328677877474931</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.766588914147107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3930152178510014</v>
+        <v>3.306363166317567</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02620583285478872</v>
+        <v>0.4792844095183568</v>
       </c>
       <c r="E17">
-        <v>0.008321658227497641</v>
+        <v>0.5696468939401882</v>
       </c>
       <c r="F17">
-        <v>3.211248262464352</v>
+        <v>2.822754035634262</v>
       </c>
       <c r="G17">
-        <v>0.8623607214307469</v>
+        <v>0.0007613995587994357</v>
       </c>
       <c r="H17">
-        <v>1.677199034192796</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.002846613457052838</v>
+        <v>0.7744637703008266</v>
       </c>
       <c r="K17">
-        <v>6.190640940652344</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2.042282399095399</v>
       </c>
       <c r="M17">
-        <v>4.074053968523401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.270888896119914</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.659488944928881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3830158905316665</v>
+        <v>3.223770039986789</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02490375421421831</v>
+        <v>0.4659681498936834</v>
       </c>
       <c r="E18">
-        <v>0.008667950563002069</v>
+        <v>0.5559023724372167</v>
       </c>
       <c r="F18">
-        <v>3.110957318061082</v>
+        <v>2.767212178605746</v>
       </c>
       <c r="G18">
-        <v>0.8342795444253994</v>
+        <v>0.0007643038569505878</v>
       </c>
       <c r="H18">
-        <v>1.624886499709874</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.003074870067089508</v>
+        <v>0.7574856941843819</v>
       </c>
       <c r="K18">
-        <v>6.020560179338247</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.987879344259568</v>
       </c>
       <c r="M18">
-        <v>3.960253108458346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.237902740332231</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.59925835015467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3796396242063764</v>
+        <v>3.195910848577398</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0244732347822918</v>
+        <v>0.4614847712611834</v>
       </c>
       <c r="E19">
-        <v>0.008786759076689465</v>
+        <v>0.5512657558742546</v>
       </c>
       <c r="F19">
-        <v>3.077429253545859</v>
+        <v>2.748648293847225</v>
       </c>
       <c r="G19">
-        <v>0.8248911351774666</v>
+        <v>0.0007652879977598833</v>
       </c>
       <c r="H19">
-        <v>1.607410767599106</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.003156297280713094</v>
+        <v>0.7517537090263602</v>
       </c>
       <c r="K19">
-        <v>5.963256472803238</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.969526638781844</v>
       </c>
       <c r="M19">
-        <v>3.921929189619149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.226775323893293</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.579090083135952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3948704107054084</v>
+        <v>3.321700636247897</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02645189489717481</v>
+        <v>0.481761323745161</v>
       </c>
       <c r="E20">
-        <v>0.008258317058690956</v>
+        <v>0.5721990532807624</v>
       </c>
       <c r="F20">
-        <v>3.230019645368429</v>
+        <v>2.833150898408206</v>
       </c>
       <c r="G20">
-        <v>0.8676163674785755</v>
+        <v>0.0007608623748849662</v>
       </c>
       <c r="H20">
-        <v>1.686996574804382</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.002806381456165852</v>
+        <v>0.7776141278937132</v>
       </c>
       <c r="K20">
-        <v>6.222257936643416</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>2.05238402713502</v>
       </c>
       <c r="M20">
-        <v>4.09521760816574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.277013953288986</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.670745518888111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4467622009646703</v>
+        <v>3.752473711466678</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0339271864847035</v>
+        <v>0.551881459526868</v>
       </c>
       <c r="E21">
-        <v>0.006596985238268571</v>
+        <v>0.6438855968807076</v>
       </c>
       <c r="F21">
-        <v>3.776530927960181</v>
+        <v>3.135497917069586</v>
       </c>
       <c r="G21">
-        <v>1.020607660075299</v>
+        <v>0.0007460218089542314</v>
       </c>
       <c r="H21">
-        <v>1.973044100740736</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.001948224905980567</v>
+        <v>0.8658157007889571</v>
       </c>
       <c r="K21">
-        <v>7.11511413536968</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>2.33603061621443</v>
       </c>
       <c r="M21">
-        <v>4.693988332812552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.449004181364486</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.995913589999986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4813022628657677</v>
+        <v>4.041114199804781</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03957820651465482</v>
+        <v>0.599504893201356</v>
       </c>
       <c r="E22">
-        <v>0.005603703562591544</v>
+        <v>0.6919666278032963</v>
       </c>
       <c r="F22">
-        <v>4.164376479327672</v>
+        <v>3.348952764184844</v>
       </c>
       <c r="G22">
-        <v>1.129179512646417</v>
+        <v>0.000736309744456324</v>
       </c>
       <c r="H22">
-        <v>2.176900331712901</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.001663603949632275</v>
+        <v>0.9246582357591251</v>
       </c>
       <c r="K22">
-        <v>7.719568670658276</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>2.526085216840386</v>
       </c>
       <c r="M22">
-        <v>5.100552115926064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.564225911822476</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>3.223331688632214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4628039730841778</v>
+        <v>3.886338584203315</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0364811604715527</v>
+        <v>0.5739011398464413</v>
       </c>
       <c r="E23">
-        <v>0.006124851386711372</v>
+        <v>0.6661767654045505</v>
       </c>
       <c r="F23">
-        <v>3.954172951065857</v>
+        <v>3.233428621453044</v>
       </c>
       <c r="G23">
-        <v>1.070334707855494</v>
+        <v>0.0007414968525541013</v>
       </c>
       <c r="H23">
-        <v>2.066332481897774</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.001787374744479209</v>
+        <v>0.8931278983833835</v>
       </c>
       <c r="K23">
-        <v>7.39475261721978</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2.424168637692901</v>
       </c>
       <c r="M23">
-        <v>4.881957377399459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.502441828058608</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3.10044546736799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3940315157246204</v>
+        <v>3.314764687785043</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02634045368958837</v>
+        <v>0.4806410470184801</v>
       </c>
       <c r="E24">
-        <v>0.008286924251123873</v>
+        <v>0.5710449150775645</v>
       </c>
       <c r="F24">
-        <v>3.221525064730713</v>
+        <v>2.82844600656199</v>
       </c>
       <c r="G24">
-        <v>0.8652380495567229</v>
+        <v>0.0007611052199852528</v>
       </c>
       <c r="H24">
-        <v>1.682562670542268</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.00282449191879075</v>
+        <v>0.7761895588110121</v>
       </c>
       <c r="K24">
-        <v>6.207958703274784</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2.047815878718922</v>
       </c>
       <c r="M24">
-        <v>4.085645714523977</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.274244081088739</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.665652267883956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3219846522137289</v>
+        <v>2.722358291884404</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01780574441045246</v>
+        <v>0.3858733025165861</v>
       </c>
       <c r="E25">
-        <v>0.01097109273977082</v>
+        <v>0.4723666201893479</v>
       </c>
       <c r="F25">
-        <v>2.530348136566403</v>
+        <v>2.446756202457138</v>
       </c>
       <c r="G25">
-        <v>0.6716262805610427</v>
+        <v>0.0007824109861509396</v>
       </c>
       <c r="H25">
-        <v>1.323249527100288</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.004891968687461334</v>
+        <v>0.6538665693842489</v>
       </c>
       <c r="K25">
-        <v>4.99344697554892</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.65731049783389</v>
       </c>
       <c r="M25">
-        <v>3.274735256351875</v>
+        <v>1.037528750318607</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.248025140241992</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.301003923004487</v>
+        <v>0.8506875471358057</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3194287198066235</v>
+        <v>0.08069468316849537</v>
       </c>
       <c r="E2">
-        <v>0.4018880331607022</v>
+        <v>0.08864963730076791</v>
       </c>
       <c r="F2">
-        <v>2.201466393767106</v>
+        <v>0.8608219560706019</v>
       </c>
       <c r="G2">
-        <v>0.0007984244983461829</v>
+        <v>0.000820537196153619</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5658778425992779</v>
+        <v>0.1388210746073057</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.083599790297512</v>
       </c>
       <c r="L2">
-        <v>1.378846292302001</v>
+        <v>0.1808110528484548</v>
       </c>
       <c r="M2">
-        <v>0.8688991475213967</v>
+        <v>0.2073331592137748</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.228519712911245</v>
       </c>
       <c r="O2">
-        <v>1.973313869074559</v>
+        <v>2.162754659316391</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.022288750041184</v>
+        <v>0.763755536199568</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2758162284045085</v>
+        <v>0.077976266035094</v>
       </c>
       <c r="E3">
-        <v>0.3550056770296734</v>
+        <v>0.09011450496290507</v>
       </c>
       <c r="F3">
-        <v>2.052840513757445</v>
+        <v>0.8435320811212819</v>
       </c>
       <c r="G3">
-        <v>0.0008095583655452852</v>
+        <v>0.0008241730143699892</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5070665277384734</v>
+        <v>0.1414947891796228</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9440080508742881</v>
       </c>
       <c r="L3">
-        <v>1.194086344731062</v>
+        <v>0.1579273208801411</v>
       </c>
       <c r="M3">
-        <v>0.7571590550345206</v>
+        <v>0.1839147209994501</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.279121958746853</v>
       </c>
       <c r="O3">
-        <v>1.803029586111265</v>
+        <v>2.122882005939118</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.853854283966712</v>
+        <v>0.7109466612663766</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.249556145268528</v>
+        <v>0.07637045209582283</v>
       </c>
       <c r="E4">
-        <v>0.326523976110515</v>
+        <v>0.0910760186694084</v>
       </c>
       <c r="F4">
-        <v>1.968962624710102</v>
+        <v>0.8341752480734357</v>
       </c>
       <c r="G4">
-        <v>0.0008165551893978356</v>
+        <v>0.0008264843621686446</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4712299128213573</v>
+        <v>0.1432075925330949</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8583534601962697</v>
       </c>
       <c r="L4">
-        <v>1.082125182485186</v>
+        <v>0.1439331881414958</v>
       </c>
       <c r="M4">
-        <v>0.6895276178198131</v>
+        <v>0.169647393330866</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.311457483669012</v>
       </c>
       <c r="O4">
-        <v>1.705043657046403</v>
+        <v>2.101822250503545</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.785805188463286</v>
+        <v>0.6895602222693356</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.238961613976457</v>
+        <v>0.07573161593317224</v>
       </c>
       <c r="E5">
-        <v>0.3149769858790208</v>
+        <v>0.09148332803412185</v>
       </c>
       <c r="F5">
-        <v>1.936464179978998</v>
+        <v>0.830667446455486</v>
       </c>
       <c r="G5">
-        <v>0.000819449713347775</v>
+        <v>0.0008274463953898716</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4566781581213775</v>
+        <v>0.1439234129068785</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8234515228348869</v>
       </c>
       <c r="L5">
-        <v>1.036811356239127</v>
+        <v>0.1382427403069002</v>
       </c>
       <c r="M5">
-        <v>0.6621767834991985</v>
+        <v>0.1638591576743735</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.324947260692512</v>
       </c>
       <c r="O5">
-        <v>1.66659784891398</v>
+        <v>2.094067612989988</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.774538840377659</v>
+        <v>0.6860168306407672</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2372082000728852</v>
+        <v>0.07562646606425716</v>
       </c>
       <c r="E6">
-        <v>0.3130627516333746</v>
+        <v>0.09155189310422962</v>
       </c>
       <c r="F6">
-        <v>1.931164717522208</v>
+        <v>0.8301030857569316</v>
       </c>
       <c r="G6">
-        <v>0.0008199330388319308</v>
+        <v>0.0008276073649645671</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.454264530276518</v>
+        <v>0.1440433504180629</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8176559567632751</v>
       </c>
       <c r="L6">
-        <v>1.029304152766798</v>
+        <v>0.1372985321293498</v>
       </c>
       <c r="M6">
-        <v>0.6576468616549391</v>
+        <v>0.1628995206308907</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.327205964954466</v>
       </c>
       <c r="O6">
-        <v>1.660299010430336</v>
+        <v>2.092828992543218</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.85293427540006</v>
+        <v>0.7106577070833566</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.249412861195637</v>
+        <v>0.07636177406178746</v>
       </c>
       <c r="E7">
-        <v>0.3263680293915314</v>
+        <v>0.09108144925077966</v>
       </c>
       <c r="F7">
-        <v>1.968517743346268</v>
+        <v>0.8341267197203521</v>
       </c>
       <c r="G7">
-        <v>0.0008165940471301925</v>
+        <v>0.0008264972544743956</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4710334733510138</v>
+        <v>0.1432171741680017</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8578827622859251</v>
       </c>
       <c r="L7">
-        <v>1.081512880710619</v>
+        <v>0.143856397573991</v>
       </c>
       <c r="M7">
-        <v>0.6891579518305448</v>
+        <v>0.1695692295481273</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.311638152059118</v>
       </c>
       <c r="O7">
-        <v>1.704519363182413</v>
+        <v>2.101714361410956</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.204286524014833</v>
+        <v>0.8205898850313815</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3042685101836895</v>
+        <v>0.07974400326131104</v>
       </c>
       <c r="E8">
-        <v>0.3856490093078619</v>
+        <v>0.08914176224551529</v>
       </c>
       <c r="F8">
-        <v>2.148578911349233</v>
+        <v>0.8545919928892829</v>
       </c>
       <c r="G8">
-        <v>0.0008022319520454471</v>
+        <v>0.0008217746203541543</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5455320873674054</v>
+        <v>0.1397281791891443</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.03545029563216</v>
       </c>
       <c r="L8">
-        <v>1.314794316870746</v>
+        <v>0.1729077877557899</v>
       </c>
       <c r="M8">
-        <v>0.8301452625198564</v>
+        <v>0.1992338933638109</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.245701363265547</v>
       </c>
       <c r="O8">
-        <v>1.9131299595103</v>
+        <v>2.148275837884711</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.919251120120407</v>
+        <v>1.041116652014267</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.417179014889669</v>
+        <v>0.08689694479244281</v>
       </c>
       <c r="E9">
-        <v>0.5051967445073942</v>
+        <v>0.0858364584301583</v>
       </c>
       <c r="F9">
-        <v>2.569078674975245</v>
+        <v>0.9052612170728978</v>
       </c>
       <c r="G9">
-        <v>0.0007751949829336658</v>
+        <v>0.0008131261345797649</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.694677253268182</v>
+        <v>0.1334527470815883</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.384636075115054</v>
       </c>
       <c r="L9">
-        <v>1.787192627869615</v>
+        <v>0.2304222827328033</v>
       </c>
       <c r="M9">
-        <v>1.11624014741146</v>
+        <v>0.258403210809611</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.12669438508856</v>
       </c>
       <c r="O9">
-        <v>2.382931344948474</v>
+        <v>2.268315822728027</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.467686973810828</v>
+        <v>1.206823323461322</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5054031560197529</v>
+        <v>0.09249656421118857</v>
       </c>
       <c r="E10">
-        <v>0.5964900286819699</v>
+        <v>0.08372031572354999</v>
       </c>
       <c r="F10">
-        <v>2.933393697889557</v>
+        <v>0.949714211044153</v>
       </c>
       <c r="G10">
-        <v>0.0007557812735149013</v>
+        <v>0.0008071253486685026</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.807563594366755</v>
+        <v>0.1291903307900815</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.642594852030982</v>
       </c>
       <c r="L10">
-        <v>2.148522045311068</v>
+        <v>0.2731557550473127</v>
       </c>
       <c r="M10">
-        <v>1.335307994060713</v>
+        <v>0.3026495119868642</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.045900704744588</v>
       </c>
       <c r="O10">
-        <v>2.779003854928334</v>
+        <v>2.376350960258094</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.72416910727037</v>
+        <v>1.28316592165163</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5472400257418712</v>
+        <v>0.09512514919807558</v>
       </c>
       <c r="E11">
-        <v>0.6391736644663979</v>
+        <v>0.08282739561763197</v>
       </c>
       <c r="F11">
-        <v>3.115029299237762</v>
+        <v>0.9716954964391391</v>
       </c>
       <c r="G11">
-        <v>0.0007469834435973339</v>
+        <v>0.0008044674525475397</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8600354188191659</v>
+        <v>0.1273275004642951</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.760448980028798</v>
       </c>
       <c r="L11">
-        <v>2.31739503425058</v>
+        <v>0.2927347777208382</v>
       </c>
       <c r="M11">
-        <v>1.437704947672145</v>
+        <v>0.322986101771896</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.010673273277948</v>
       </c>
       <c r="O11">
-        <v>2.974020611796306</v>
+        <v>2.430357063088877</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.822492752047708</v>
+        <v>1.312226868887137</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5633848350125561</v>
+        <v>0.0961327691600502</v>
       </c>
       <c r="E12">
-        <v>0.6555437385001497</v>
+        <v>0.08249947263795843</v>
       </c>
       <c r="F12">
-        <v>3.186490201636559</v>
+        <v>0.9802890058670073</v>
       </c>
       <c r="G12">
-        <v>0.0007436503402715706</v>
+        <v>0.0008034709108490852</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8801066405633264</v>
+        <v>0.1266331135711072</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.805167203016396</v>
       </c>
       <c r="L12">
-        <v>2.382131232334103</v>
+        <v>0.3001719049502896</v>
       </c>
       <c r="M12">
-        <v>1.476955373256118</v>
+        <v>0.3307204875725347</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.9975608077850797</v>
       </c>
       <c r="O12">
-        <v>3.050386260183458</v>
+        <v>2.451555534473925</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.801260226043667</v>
+        <v>1.305961106791642</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5598932962109586</v>
+        <v>0.09591520715549962</v>
       </c>
       <c r="E13">
-        <v>0.6520082237841152</v>
+        <v>0.08256963980343635</v>
       </c>
       <c r="F13">
-        <v>3.170973649438139</v>
+        <v>0.9784259689868975</v>
       </c>
       <c r="G13">
-        <v>0.0007443683666069411</v>
+        <v>0.0008036850980903121</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8757742684411767</v>
+        <v>0.1267821705775543</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.795532081622667</v>
       </c>
       <c r="L13">
-        <v>2.368151602116029</v>
+        <v>0.2985691156268189</v>
       </c>
       <c r="M13">
-        <v>1.468479536789303</v>
+        <v>0.3290532097961076</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.000374566246401</v>
       </c>
       <c r="O13">
-        <v>3.033820763105837</v>
+        <v>2.446956009048819</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.732232992397371</v>
+        <v>1.285553664155373</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5485618476716638</v>
+        <v>0.09520779832576665</v>
       </c>
       <c r="E14">
-        <v>0.640516036370208</v>
+        <v>0.08280021157472284</v>
       </c>
       <c r="F14">
-        <v>3.120852235060397</v>
+        <v>0.9723969856189854</v>
       </c>
       <c r="G14">
-        <v>0.0007467092990552063</v>
+        <v>0.0008043852694376545</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8616823985166917</v>
+        <v>0.127270151408216</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.764126084459207</v>
       </c>
       <c r="L14">
-        <v>2.322704242763194</v>
+        <v>0.2933461565991422</v>
       </c>
       <c r="M14">
-        <v>1.440924074617129</v>
+        <v>0.3236217257842497</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.009589898109361</v>
       </c>
       <c r="O14">
-        <v>2.980250375028177</v>
+        <v>2.432085802485346</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.690114301932113</v>
+        <v>1.273073678274159</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5416622333209773</v>
+        <v>0.09477609961955835</v>
       </c>
       <c r="E15">
-        <v>0.6335050005747433</v>
+        <v>0.08294277815130524</v>
       </c>
       <c r="F15">
-        <v>3.090513186088401</v>
+        <v>0.9687396919286329</v>
       </c>
       <c r="G15">
-        <v>0.0007481427763830282</v>
+        <v>0.0008048154278915598</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8530782582340919</v>
+        <v>0.1275704920120706</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.744901158611043</v>
       </c>
       <c r="L15">
-        <v>2.294973580885994</v>
+        <v>0.290150026338182</v>
       </c>
       <c r="M15">
-        <v>1.424110033921039</v>
+        <v>0.320299232661732</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.015264413527739</v>
       </c>
       <c r="O15">
-        <v>2.94777729051151</v>
+        <v>2.423076220058164</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.451081871393683</v>
+        <v>1.201854631365819</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5027079379854911</v>
+        <v>0.09232646137255074</v>
       </c>
       <c r="E16">
-        <v>0.5937270884627495</v>
+        <v>0.08378008835739958</v>
       </c>
       <c r="F16">
-        <v>2.92187545145984</v>
+        <v>0.9483144871268081</v>
       </c>
       <c r="G16">
-        <v>0.0007563563867501653</v>
+        <v>0.0008073004620082353</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8041602428838246</v>
+        <v>0.1293136099975327</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.634904397914624</v>
       </c>
       <c r="L16">
-        <v>2.137587842131154</v>
+        <v>0.2718792703798556</v>
       </c>
       <c r="M16">
-        <v>1.328677877474931</v>
+        <v>0.3013249491041208</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.048234276910093</v>
       </c>
       <c r="O16">
-        <v>2.766588914147107</v>
+        <v>2.372923421270144</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.306363166317567</v>
+        <v>1.158419629959241</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4792844095183568</v>
+        <v>0.09084488346567809</v>
       </c>
       <c r="E17">
-        <v>0.5696468939401882</v>
+        <v>0.08431173413679005</v>
       </c>
       <c r="F17">
-        <v>2.822754035634262</v>
+        <v>0.9362464415815026</v>
       </c>
       <c r="G17">
-        <v>0.0007613995587994357</v>
+        <v>0.0008088430909822056</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7744637703008266</v>
+        <v>0.1304025153689841</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.56756624710718</v>
       </c>
       <c r="L17">
-        <v>2.042282399095399</v>
+        <v>0.2607084700526912</v>
       </c>
       <c r="M17">
-        <v>1.270888896119914</v>
+        <v>0.2897406118978978</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.068856581053355</v>
       </c>
       <c r="O17">
-        <v>2.659488944928881</v>
+        <v>2.343434762838541</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.223770039986789</v>
+        <v>1.13352664616886</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4659681498936834</v>
+        <v>0.0900003360165087</v>
       </c>
       <c r="E18">
-        <v>0.5559023724372167</v>
+        <v>0.08462407409392725</v>
       </c>
       <c r="F18">
-        <v>2.767212178605746</v>
+        <v>0.9294697639837679</v>
       </c>
       <c r="G18">
-        <v>0.0007643038569505878</v>
+        <v>0.0008097371619444406</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7574856941843819</v>
+        <v>0.1310359891896593</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.528881827749302</v>
       </c>
       <c r="L18">
-        <v>1.987879344259568</v>
+        <v>0.254296249693823</v>
       </c>
       <c r="M18">
-        <v>1.237902740332231</v>
+        <v>0.2830970405625735</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.080861116496629</v>
       </c>
       <c r="O18">
-        <v>2.59925835015467</v>
+        <v>2.32692805442403</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.195910848577398</v>
+        <v>1.125113319093884</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4614847712611834</v>
+        <v>0.08971567899826738</v>
       </c>
       <c r="E19">
-        <v>0.5512657558742546</v>
+        <v>0.08473094690871097</v>
       </c>
       <c r="F19">
-        <v>2.748648293847225</v>
+        <v>0.9272030669200646</v>
       </c>
       <c r="G19">
-        <v>0.0007652879977598833</v>
+        <v>0.0008100410570697907</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7517537090263602</v>
+        <v>0.1312517008156275</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.515791486953731</v>
       </c>
       <c r="L19">
-        <v>1.969526638781844</v>
+        <v>0.2521273163967521</v>
       </c>
       <c r="M19">
-        <v>1.226775323893293</v>
+        <v>0.2808508807342918</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.084949994278045</v>
       </c>
       <c r="O19">
-        <v>2.579090083135952</v>
+        <v>2.321415778183592</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.321700636247897</v>
+        <v>1.163033984410873</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.481761323745161</v>
+        <v>0.09100180781222633</v>
       </c>
       <c r="E20">
-        <v>0.5721990532807624</v>
+        <v>0.08425446022055194</v>
       </c>
       <c r="F20">
-        <v>2.833150898408206</v>
+        <v>0.9375139586474148</v>
       </c>
       <c r="G20">
-        <v>0.0007608623748849662</v>
+        <v>0.0008086781754349301</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7776141278937132</v>
+        <v>0.1302858575366153</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.574729559027958</v>
       </c>
       <c r="L20">
-        <v>2.05238402713502</v>
+        <v>0.261896262143793</v>
       </c>
       <c r="M20">
-        <v>1.277013953288986</v>
+        <v>0.2909717495903266</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.066646431900243</v>
       </c>
       <c r="O20">
-        <v>2.670745518888111</v>
+        <v>2.346526511379295</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.752473711466678</v>
+        <v>1.291543597940262</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.551881459526868</v>
+        <v>0.09541524498555987</v>
       </c>
       <c r="E21">
-        <v>0.6438855968807076</v>
+        <v>0.08273220856808816</v>
       </c>
       <c r="F21">
-        <v>3.135497917069586</v>
+        <v>0.9741603870698583</v>
       </c>
       <c r="G21">
-        <v>0.0007460218089542314</v>
+        <v>0.0008041793454167562</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8658157007889571</v>
+        <v>0.1271265197400151</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.773348223116017</v>
       </c>
       <c r="L21">
-        <v>2.33603061621443</v>
+        <v>0.2948796182457016</v>
       </c>
       <c r="M21">
-        <v>1.449004181364486</v>
+        <v>0.3252161511198892</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.006876894362721</v>
       </c>
       <c r="O21">
-        <v>2.995913589999986</v>
+        <v>2.436432851355164</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.041114199804781</v>
+        <v>1.376422890833283</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.599504893201356</v>
+        <v>0.09837125452799</v>
       </c>
       <c r="E22">
-        <v>0.6919666278032963</v>
+        <v>0.0817969114042425</v>
       </c>
       <c r="F22">
-        <v>3.348952764184844</v>
+        <v>0.9996913377647871</v>
       </c>
       <c r="G22">
-        <v>0.000736309744456324</v>
+        <v>0.0008012968736940978</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9246582357591251</v>
+        <v>0.1251260184649752</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.903686734157617</v>
       </c>
       <c r="L22">
-        <v>2.526085216840386</v>
+        <v>0.3165715885255054</v>
       </c>
       <c r="M22">
-        <v>1.564225911822476</v>
+        <v>0.3477930150309945</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.9691435504692429</v>
       </c>
       <c r="O22">
-        <v>3.223331688632214</v>
+        <v>2.499573951082482</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.886338584203315</v>
+        <v>1.331035062656326</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5739011398464413</v>
+        <v>0.09678683945823252</v>
       </c>
       <c r="E23">
-        <v>0.6661767654045505</v>
+        <v>0.08229058306958148</v>
       </c>
       <c r="F23">
-        <v>3.233428621453044</v>
+        <v>0.9859145886312604</v>
       </c>
       <c r="G23">
-        <v>0.0007414968525541013</v>
+        <v>0.0008028301522762729</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8931278983833835</v>
+        <v>0.1261878137418249</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.834068393781962</v>
       </c>
       <c r="L23">
-        <v>2.424168637692901</v>
+        <v>0.3049807567086305</v>
       </c>
       <c r="M23">
-        <v>1.502441828058608</v>
+        <v>0.3357242036227603</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.9891581369050613</v>
       </c>
       <c r="O23">
-        <v>3.10044546736799</v>
+        <v>2.465456479638078</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.314764687785043</v>
+        <v>1.160947591635647</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4806410470184801</v>
+        <v>0.09093083983164263</v>
       </c>
       <c r="E24">
-        <v>0.5710449150775645</v>
+        <v>0.08428033293465109</v>
       </c>
       <c r="F24">
-        <v>2.82844600656199</v>
+        <v>0.9369404126974104</v>
       </c>
       <c r="G24">
-        <v>0.0007611052199852528</v>
+        <v>0.0008087527113802479</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7761895588110121</v>
+        <v>0.1303385753505104</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.571490936047866</v>
       </c>
       <c r="L24">
-        <v>2.047815878718922</v>
+        <v>0.2613592303440413</v>
       </c>
       <c r="M24">
-        <v>1.274244081088739</v>
+        <v>0.2904151013501419</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.067645178390343</v>
       </c>
       <c r="O24">
-        <v>2.665652267883956</v>
+        <v>2.345127344087871</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.722358291884404</v>
+        <v>0.9808617555106025</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3858733025165861</v>
+        <v>0.08490346671118232</v>
       </c>
       <c r="E25">
-        <v>0.4723666201893479</v>
+        <v>0.0866764298954088</v>
       </c>
       <c r="F25">
-        <v>2.446756202457138</v>
+        <v>0.8903457560446384</v>
       </c>
       <c r="G25">
-        <v>0.0007824109861509396</v>
+        <v>0.0008154022246604126</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6538665693842489</v>
+        <v>0.1350894943646188</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.289986393955644</v>
       </c>
       <c r="L25">
-        <v>1.65731049783389</v>
+        <v>0.2147903076494515</v>
       </c>
       <c r="M25">
-        <v>1.037528750318607</v>
+        <v>0.2422729900480505</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.157750457542199</v>
       </c>
       <c r="O25">
-        <v>2.248025140241992</v>
+        <v>2.232534101513096</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8506875471358057</v>
+        <v>1.047363247226826</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08069468316849537</v>
+        <v>0.1940990992983416</v>
       </c>
       <c r="E2">
-        <v>0.08864963730076791</v>
+        <v>0.2285010784184545</v>
       </c>
       <c r="F2">
-        <v>0.8608219560706019</v>
+        <v>1.832219175787728</v>
       </c>
       <c r="G2">
-        <v>0.000820537196153619</v>
+        <v>0.002494117940094704</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1388210746073057</v>
+        <v>0.3153605015601499</v>
       </c>
       <c r="K2">
-        <v>1.083599790297512</v>
+        <v>0.3618362577875587</v>
       </c>
       <c r="L2">
-        <v>0.1808110528484548</v>
+        <v>0.1379720860992535</v>
       </c>
       <c r="M2">
-        <v>0.2073331592137748</v>
+        <v>0.2201592650527857</v>
       </c>
       <c r="N2">
-        <v>1.228519712911245</v>
+        <v>2.562446059108983</v>
       </c>
       <c r="O2">
-        <v>2.162754659316391</v>
+        <v>4.525278713370056</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.763755536199568</v>
+        <v>1.028272804076835</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.077976266035094</v>
+        <v>0.1941849182040514</v>
       </c>
       <c r="E3">
-        <v>0.09011450496290507</v>
+        <v>0.2296497882683779</v>
       </c>
       <c r="F3">
-        <v>0.8435320811212819</v>
+        <v>1.838472239546746</v>
       </c>
       <c r="G3">
-        <v>0.0008241730143699892</v>
+        <v>0.00249658769447901</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1414947891796228</v>
+        <v>0.3168055990229846</v>
       </c>
       <c r="K3">
-        <v>0.9440080508742881</v>
+        <v>0.3202111586456056</v>
       </c>
       <c r="L3">
-        <v>0.1579273208801411</v>
+        <v>0.1319910143878857</v>
       </c>
       <c r="M3">
-        <v>0.1839147209994501</v>
+        <v>0.2146039941685096</v>
       </c>
       <c r="N3">
-        <v>1.279121958746853</v>
+        <v>2.584557899823347</v>
       </c>
       <c r="O3">
-        <v>2.122882005939118</v>
+        <v>4.542511771281596</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7109466612663766</v>
+        <v>1.016973291525574</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07637045209582283</v>
+        <v>0.1942910189364397</v>
       </c>
       <c r="E4">
-        <v>0.0910760186694084</v>
+        <v>0.230401655981928</v>
       </c>
       <c r="F4">
-        <v>0.8341752480734357</v>
+        <v>1.843074078533647</v>
       </c>
       <c r="G4">
-        <v>0.0008264843621686446</v>
+        <v>0.002498186931431273</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1432075925330949</v>
+        <v>0.3177422708571176</v>
       </c>
       <c r="K4">
-        <v>0.8583534601962697</v>
+        <v>0.2946534944191512</v>
       </c>
       <c r="L4">
-        <v>0.1439331881414958</v>
+        <v>0.1283638274466057</v>
       </c>
       <c r="M4">
-        <v>0.169647393330866</v>
+        <v>0.2112779821511523</v>
       </c>
       <c r="N4">
-        <v>1.311457483669012</v>
+        <v>2.598828927627177</v>
       </c>
       <c r="O4">
-        <v>2.101822250503545</v>
+        <v>4.555070441406798</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6895602222693356</v>
+        <v>1.012475373485699</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07573161593317224</v>
+        <v>0.1943477343420597</v>
       </c>
       <c r="E5">
-        <v>0.09148332803412185</v>
+        <v>0.2307197797874903</v>
       </c>
       <c r="F5">
-        <v>0.830667446455486</v>
+        <v>1.845141335098226</v>
       </c>
       <c r="G5">
-        <v>0.0008274463953898716</v>
+        <v>0.002498859514576418</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1439234129068785</v>
+        <v>0.3181364141913154</v>
       </c>
       <c r="K5">
-        <v>0.8234515228348869</v>
+        <v>0.2842392006988632</v>
       </c>
       <c r="L5">
-        <v>0.1382427403069002</v>
+        <v>0.1268972113161269</v>
       </c>
       <c r="M5">
-        <v>0.1638591576743735</v>
+        <v>0.2099441089053542</v>
       </c>
       <c r="N5">
-        <v>1.324947260692512</v>
+        <v>2.604819165332905</v>
       </c>
       <c r="O5">
-        <v>2.094067612989988</v>
+        <v>4.560685942259227</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6860168306407672</v>
+        <v>1.01173496077314</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07562646606425716</v>
+        <v>0.1943579673934508</v>
       </c>
       <c r="E6">
-        <v>0.09155189310422962</v>
+        <v>0.2307733132963827</v>
       </c>
       <c r="F6">
-        <v>0.8301030857569316</v>
+        <v>1.84549620333658</v>
       </c>
       <c r="G6">
-        <v>0.0008276073649645671</v>
+        <v>0.002498972459476462</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1440433504180629</v>
+        <v>0.3182026136181477</v>
       </c>
       <c r="K6">
-        <v>0.8176559567632751</v>
+        <v>0.2825099722945197</v>
       </c>
       <c r="L6">
-        <v>0.1372985321293498</v>
+        <v>0.1266543785111836</v>
       </c>
       <c r="M6">
-        <v>0.1628995206308907</v>
+        <v>0.2097239232469654</v>
       </c>
       <c r="N6">
-        <v>1.327205964954466</v>
+        <v>2.605824392799129</v>
       </c>
       <c r="O6">
-        <v>2.092828992543218</v>
+        <v>4.561648468411164</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7106577070833566</v>
+        <v>1.016912198127528</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07636177406178746</v>
+        <v>0.1942917291809891</v>
       </c>
       <c r="E7">
-        <v>0.09108144925077966</v>
+        <v>0.2304058987765298</v>
       </c>
       <c r="F7">
-        <v>0.8341267197203521</v>
+        <v>1.843101180668697</v>
       </c>
       <c r="G7">
-        <v>0.0008264972544743956</v>
+        <v>0.002498195917453064</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1432171741680017</v>
+        <v>0.3177475360003474</v>
       </c>
       <c r="K7">
-        <v>0.8578827622859251</v>
+        <v>0.2945130401595861</v>
       </c>
       <c r="L7">
-        <v>0.143856397573991</v>
+        <v>0.1283440014558224</v>
       </c>
       <c r="M7">
-        <v>0.1695692295481273</v>
+        <v>0.2112599058126641</v>
       </c>
       <c r="N7">
-        <v>1.311638152059118</v>
+        <v>2.598909006671805</v>
       </c>
       <c r="O7">
-        <v>2.101714361410956</v>
+        <v>4.555144158044584</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8205898850313815</v>
+        <v>1.040693599327597</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07974400326131104</v>
+        <v>0.1941176338501478</v>
       </c>
       <c r="E8">
-        <v>0.08914176224551529</v>
+        <v>0.2288875060515272</v>
       </c>
       <c r="F8">
-        <v>0.8545919928892829</v>
+        <v>1.834217137000827</v>
       </c>
       <c r="G8">
-        <v>0.0008217746203541543</v>
+        <v>0.002494952363426184</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1397281791891443</v>
+        <v>0.3158485388194396</v>
       </c>
       <c r="K8">
-        <v>1.03545029563216</v>
+        <v>0.3474841952808276</v>
       </c>
       <c r="L8">
-        <v>0.1729077877557899</v>
+        <v>0.1359004994121307</v>
       </c>
       <c r="M8">
-        <v>0.1992338933638109</v>
+        <v>0.2182262606427017</v>
       </c>
       <c r="N8">
-        <v>1.245701363265547</v>
+        <v>2.569926187717686</v>
       </c>
       <c r="O8">
-        <v>2.148275837884711</v>
+        <v>4.530810524410981</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.041116652014267</v>
+        <v>1.090655531594507</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08689694479244281</v>
+        <v>0.1941979692905562</v>
       </c>
       <c r="E9">
-        <v>0.0858364584301583</v>
+        <v>0.2262782120474434</v>
       </c>
       <c r="F9">
-        <v>0.9052612170728978</v>
+        <v>1.822835173832935</v>
       </c>
       <c r="G9">
-        <v>0.0008131261345797649</v>
+        <v>0.002489245948122587</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1334527470815883</v>
+        <v>0.3125151916360136</v>
       </c>
       <c r="K9">
-        <v>1.384636075115054</v>
+        <v>0.4513423616591865</v>
       </c>
       <c r="L9">
-        <v>0.2304222827328033</v>
+        <v>0.1510729820181069</v>
       </c>
       <c r="M9">
-        <v>0.258403210809611</v>
+        <v>0.2325558483941137</v>
       </c>
       <c r="N9">
-        <v>1.12669438508856</v>
+        <v>2.518594418045847</v>
       </c>
       <c r="O9">
-        <v>2.268315822728027</v>
+        <v>4.498764418169145</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.206823323461322</v>
+        <v>1.129365175129124</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09249656421118857</v>
+        <v>0.1945115289514305</v>
       </c>
       <c r="E10">
-        <v>0.08372031572354999</v>
+        <v>0.2245841124901569</v>
       </c>
       <c r="F10">
-        <v>0.949714211044153</v>
+        <v>1.818142933660752</v>
       </c>
       <c r="G10">
-        <v>0.0008071253486685026</v>
+        <v>0.002485448362947259</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1291903307900815</v>
+        <v>0.3103025940868873</v>
       </c>
       <c r="K10">
-        <v>1.642594852030982</v>
+        <v>0.5276155879779196</v>
       </c>
       <c r="L10">
-        <v>0.2731557550473127</v>
+        <v>0.1624312376996784</v>
       </c>
       <c r="M10">
-        <v>0.3026495119868642</v>
+        <v>0.2434853567258344</v>
       </c>
       <c r="N10">
-        <v>1.045900704744588</v>
+        <v>2.484227585330357</v>
       </c>
       <c r="O10">
-        <v>2.376350960258094</v>
+        <v>4.484753263684127</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.28316592165163</v>
+        <v>1.147404941695214</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09512514919807558</v>
+        <v>0.1947089140672276</v>
       </c>
       <c r="E11">
-        <v>0.08282739561763197</v>
+        <v>0.2238615035061651</v>
       </c>
       <c r="F11">
-        <v>0.9716954964391391</v>
+        <v>1.816802847384992</v>
       </c>
       <c r="G11">
-        <v>0.0008044674525475397</v>
+        <v>0.002483805669509031</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1273275004642951</v>
+        <v>0.3093469997838643</v>
       </c>
       <c r="K11">
-        <v>1.760448980028798</v>
+        <v>0.5623035555405238</v>
       </c>
       <c r="L11">
-        <v>0.2927347777208382</v>
+        <v>0.1676432578062759</v>
       </c>
       <c r="M11">
-        <v>0.322986101771896</v>
+        <v>0.2485434656901262</v>
       </c>
       <c r="N11">
-        <v>1.010673273277948</v>
+        <v>2.469318109277642</v>
       </c>
       <c r="O11">
-        <v>2.430357063088877</v>
+        <v>4.480445111492628</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.312226868887137</v>
+        <v>1.154297514694008</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0961327691600502</v>
+        <v>0.1947914841178573</v>
       </c>
       <c r="E12">
-        <v>0.08249947263795843</v>
+        <v>0.2235947539111853</v>
       </c>
       <c r="F12">
-        <v>0.9802890058670073</v>
+        <v>1.8164094097434</v>
       </c>
       <c r="G12">
-        <v>0.0008034709108490852</v>
+        <v>0.002483195762388349</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1266331135711072</v>
+        <v>0.3089924377719679</v>
       </c>
       <c r="K12">
-        <v>1.805167203016396</v>
+        <v>0.5754371771199089</v>
       </c>
       <c r="L12">
-        <v>0.3001719049502896</v>
+        <v>0.1696232899768404</v>
       </c>
       <c r="M12">
-        <v>0.3307204875725347</v>
+        <v>0.2504711097603973</v>
       </c>
       <c r="N12">
-        <v>0.9975608077850797</v>
+        <v>2.46377631726255</v>
       </c>
       <c r="O12">
-        <v>2.451555534473925</v>
+        <v>4.479110356870905</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.305961106791642</v>
+        <v>1.15281035891158</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09591520715549962</v>
+        <v>0.1947733539379044</v>
       </c>
       <c r="E13">
-        <v>0.08256963980343635</v>
+        <v>0.2236518972703623</v>
       </c>
       <c r="F13">
-        <v>0.9784259689868975</v>
+        <v>1.816489075758241</v>
       </c>
       <c r="G13">
-        <v>0.0008036850980903121</v>
+        <v>0.002483326577592793</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1267821705775543</v>
+        <v>0.309068474695767</v>
       </c>
       <c r="K13">
-        <v>1.795532081622667</v>
+        <v>0.5726087141951268</v>
       </c>
       <c r="L13">
-        <v>0.2985691156268189</v>
+        <v>0.1691965741440811</v>
       </c>
       <c r="M13">
-        <v>0.3290532097961076</v>
+        <v>0.2500554147838159</v>
       </c>
       <c r="N13">
-        <v>1.000374566246401</v>
+        <v>2.464965211790842</v>
       </c>
       <c r="O13">
-        <v>2.446956009048819</v>
+        <v>4.479384632666438</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.285553664155373</v>
+        <v>1.147970772667264</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09520779832576665</v>
+        <v>0.1947155506105389</v>
       </c>
       <c r="E14">
-        <v>0.08280021157472284</v>
+        <v>0.2238394199620704</v>
       </c>
       <c r="F14">
-        <v>0.9723969856189854</v>
+        <v>1.816768195055744</v>
       </c>
       <c r="G14">
-        <v>0.0008043852694376545</v>
+        <v>0.002483755248817679</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.127270151408216</v>
+        <v>0.3093176835627132</v>
       </c>
       <c r="K14">
-        <v>1.764126084459207</v>
+        <v>0.5633841094751233</v>
       </c>
       <c r="L14">
-        <v>0.2933461565991422</v>
+        <v>0.1678060296661954</v>
       </c>
       <c r="M14">
-        <v>0.3236217257842497</v>
+        <v>0.2487018095220961</v>
       </c>
       <c r="N14">
-        <v>1.009589898109361</v>
+        <v>2.468860096504289</v>
       </c>
       <c r="O14">
-        <v>2.432085802485346</v>
+        <v>4.480329357314901</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.273073678274159</v>
+        <v>1.145014352003585</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09477609961955835</v>
+        <v>0.1946811619833753</v>
       </c>
       <c r="E15">
-        <v>0.08294277815130524</v>
+        <v>0.2239551792284589</v>
       </c>
       <c r="F15">
-        <v>0.9687396919286329</v>
+        <v>1.816954006584993</v>
       </c>
       <c r="G15">
-        <v>0.0008048154278915598</v>
+        <v>0.002484019402542766</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1275704920120706</v>
+        <v>0.3094712813067506</v>
       </c>
       <c r="K15">
-        <v>1.744901158611043</v>
+        <v>0.5577334983305775</v>
       </c>
       <c r="L15">
-        <v>0.290150026338182</v>
+        <v>0.1669551045173705</v>
       </c>
       <c r="M15">
-        <v>0.320299232661732</v>
+        <v>0.2478742777973579</v>
       </c>
       <c r="N15">
-        <v>1.015264413527739</v>
+        <v>2.471259382250764</v>
       </c>
       <c r="O15">
-        <v>2.423076220058164</v>
+        <v>4.480946649624883</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.201854631365819</v>
+        <v>1.128194845826499</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09232646137255074</v>
+        <v>0.1944997269028832</v>
       </c>
       <c r="E16">
-        <v>0.08378008835739958</v>
+        <v>0.22463230158837</v>
       </c>
       <c r="F16">
-        <v>0.9483144871268081</v>
+        <v>1.818246479163363</v>
       </c>
       <c r="G16">
-        <v>0.0008073004620082353</v>
+        <v>0.002485557419528423</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1293136099975327</v>
+        <v>0.3103660672844661</v>
       </c>
       <c r="K16">
-        <v>1.634904397914624</v>
+        <v>0.5253484089832341</v>
       </c>
       <c r="L16">
-        <v>0.2718792703798556</v>
+        <v>0.1620915161097258</v>
       </c>
       <c r="M16">
-        <v>0.3013249491041208</v>
+        <v>0.2431565195306504</v>
       </c>
       <c r="N16">
-        <v>1.048234276910093</v>
+        <v>2.485216524008639</v>
       </c>
       <c r="O16">
-        <v>2.372923421270144</v>
+        <v>4.485076344018495</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.158419629959241</v>
+        <v>1.117986466268405</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09084488346567809</v>
+        <v>0.1944024099422492</v>
       </c>
       <c r="E17">
-        <v>0.08431173413679005</v>
+        <v>0.2250599840169052</v>
       </c>
       <c r="F17">
-        <v>0.9362464415815026</v>
+        <v>1.81924269053458</v>
       </c>
       <c r="G17">
-        <v>0.0008088430909822056</v>
+        <v>0.002486522634949468</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1304025153689841</v>
+        <v>0.3109280171694575</v>
       </c>
       <c r="K17">
-        <v>1.56756624710718</v>
+        <v>0.5054784115311577</v>
       </c>
       <c r="L17">
-        <v>0.2607084700526912</v>
+        <v>0.1591193182569981</v>
       </c>
       <c r="M17">
-        <v>0.2897406118978978</v>
+        <v>0.2402843038055948</v>
       </c>
       <c r="N17">
-        <v>1.068856581053355</v>
+        <v>2.493964231918281</v>
       </c>
       <c r="O17">
-        <v>2.343434762838541</v>
+        <v>4.488138554595025</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.13352664616886</v>
+        <v>1.112155438651968</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0900003360165087</v>
+        <v>0.1943515915288714</v>
       </c>
       <c r="E18">
-        <v>0.08462407409392725</v>
+        <v>0.2253104992136512</v>
       </c>
       <c r="F18">
-        <v>0.9294697639837679</v>
+        <v>1.819890474016731</v>
       </c>
       <c r="G18">
-        <v>0.0008097371619444406</v>
+        <v>0.002487085790743094</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1310359891896593</v>
+        <v>0.3112560307427077</v>
       </c>
       <c r="K18">
-        <v>1.528881827749302</v>
+        <v>0.4940488963437701</v>
       </c>
       <c r="L18">
-        <v>0.254296249693823</v>
+        <v>0.1574140408273621</v>
       </c>
       <c r="M18">
-        <v>0.2830970405625735</v>
+        <v>0.238640405794257</v>
       </c>
       <c r="N18">
-        <v>1.080861116496629</v>
+        <v>2.499063845996414</v>
       </c>
       <c r="O18">
-        <v>2.32692805442403</v>
+        <v>4.490094303151153</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.125113319093884</v>
+        <v>1.110188138046055</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08971567899826738</v>
+        <v>0.1943352722437055</v>
       </c>
       <c r="E19">
-        <v>0.08473094690871097</v>
+        <v>0.2253960969595088</v>
       </c>
       <c r="F19">
-        <v>0.9272030669200646</v>
+        <v>1.820122654025624</v>
       </c>
       <c r="G19">
-        <v>0.0008100410570697907</v>
+        <v>0.00248727783952168</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1312517008156275</v>
+        <v>0.3113679147131219</v>
       </c>
       <c r="K19">
-        <v>1.515791486953731</v>
+        <v>0.490178938141554</v>
       </c>
       <c r="L19">
-        <v>0.2521273163967521</v>
+        <v>0.1568373974947548</v>
       </c>
       <c r="M19">
-        <v>0.2808508807342918</v>
+        <v>0.2380852101498974</v>
       </c>
       <c r="N19">
-        <v>1.084949994278045</v>
+        <v>2.500802195922608</v>
       </c>
       <c r="O19">
-        <v>2.321415778183592</v>
+        <v>4.490789893909692</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.163033984410873</v>
+        <v>1.119068972061655</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09100180781222633</v>
+        <v>0.1944122362469329</v>
       </c>
       <c r="E20">
-        <v>0.08425446022055194</v>
+        <v>0.225013988480165</v>
       </c>
       <c r="F20">
-        <v>0.9375139586474148</v>
+        <v>1.81912890330571</v>
       </c>
       <c r="G20">
-        <v>0.0008086781754349301</v>
+        <v>0.002486419059561736</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1302858575366153</v>
+        <v>0.3108677005584148</v>
       </c>
       <c r="K20">
-        <v>1.574729559027958</v>
+        <v>0.5075936960635374</v>
       </c>
       <c r="L20">
-        <v>0.261896262143793</v>
+        <v>0.1594352746585912</v>
       </c>
       <c r="M20">
-        <v>0.2909717495903266</v>
+        <v>0.2405892163068799</v>
       </c>
       <c r="N20">
-        <v>1.066646431900243</v>
+        <v>2.493025969010783</v>
       </c>
       <c r="O20">
-        <v>2.346526511379295</v>
+        <v>4.487792455371846</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.291543597940262</v>
+        <v>1.149390617512381</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09541524498555987</v>
+        <v>0.1947323168726172</v>
       </c>
       <c r="E21">
-        <v>0.08273220856808816</v>
+        <v>0.2237841532733107</v>
       </c>
       <c r="F21">
-        <v>0.9741603870698583</v>
+        <v>1.816683118089145</v>
       </c>
       <c r="G21">
-        <v>0.0008041793454167562</v>
+        <v>0.002483629008470917</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1271265197400151</v>
+        <v>0.3092442869138265</v>
       </c>
       <c r="K21">
-        <v>1.773348223116017</v>
+        <v>0.5660936578333349</v>
       </c>
       <c r="L21">
-        <v>0.2948796182457016</v>
+        <v>0.1682142949045158</v>
       </c>
       <c r="M21">
-        <v>0.3252161511198892</v>
+        <v>0.2490990649919311</v>
       </c>
       <c r="N21">
-        <v>1.006876894362721</v>
+        <v>2.467713249361881</v>
       </c>
       <c r="O21">
-        <v>2.436432851355164</v>
+        <v>4.48004382084406</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.376422890833283</v>
+        <v>1.169564615204251</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09837125452799</v>
+        <v>0.1949870937194476</v>
       </c>
       <c r="E22">
-        <v>0.0817969114042425</v>
+        <v>0.2230205159191305</v>
       </c>
       <c r="F22">
-        <v>0.9996913377647871</v>
+        <v>1.81574917513781</v>
       </c>
       <c r="G22">
-        <v>0.0008012968736940978</v>
+        <v>0.00248187631700242</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1251260184649752</v>
+        <v>0.3082258366723964</v>
       </c>
       <c r="K22">
-        <v>1.903686734157617</v>
+        <v>0.6043150446333527</v>
       </c>
       <c r="L22">
-        <v>0.3165715885255054</v>
+        <v>0.1739888630590087</v>
       </c>
       <c r="M22">
-        <v>0.3477930150309945</v>
+        <v>0.2547320638073671</v>
       </c>
       <c r="N22">
-        <v>0.9691435504692429</v>
+        <v>2.451776703163286</v>
       </c>
       <c r="O22">
-        <v>2.499573951082482</v>
+        <v>4.476708562022452</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.331035062656326</v>
+        <v>1.158764903956808</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.09678683945823252</v>
+        <v>0.1948469591607207</v>
       </c>
       <c r="E23">
-        <v>0.08229058306958148</v>
+        <v>0.2234244188273156</v>
       </c>
       <c r="F23">
-        <v>0.9859145886312604</v>
+        <v>1.816186905585866</v>
       </c>
       <c r="G23">
-        <v>0.0008028301522762729</v>
+        <v>0.002482805304347702</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1261878137418249</v>
+        <v>0.3087655172949697</v>
       </c>
       <c r="K23">
-        <v>1.834068393781962</v>
+        <v>0.5839168583581511</v>
       </c>
       <c r="L23">
-        <v>0.3049807567086305</v>
+        <v>0.170903527801201</v>
       </c>
       <c r="M23">
-        <v>0.3357242036227603</v>
+        <v>0.2517191501933951</v>
       </c>
       <c r="N23">
-        <v>0.9891581369050613</v>
+        <v>2.460226827092338</v>
       </c>
       <c r="O23">
-        <v>2.465456479638078</v>
+        <v>4.478330581590484</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.160947591635647</v>
+        <v>1.118579453073949</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09093083983164263</v>
+        <v>0.1944077777913051</v>
       </c>
       <c r="E24">
-        <v>0.08428033293465109</v>
+        <v>0.2250347686239698</v>
       </c>
       <c r="F24">
-        <v>0.9369404126974104</v>
+        <v>1.819180112725277</v>
       </c>
       <c r="G24">
-        <v>0.0008087527113802479</v>
+        <v>0.00248646586022698</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1303385753505104</v>
+        <v>0.3108949543061277</v>
       </c>
       <c r="K24">
-        <v>1.571490936047866</v>
+        <v>0.5066373945328451</v>
       </c>
       <c r="L24">
-        <v>0.2613592303440413</v>
+        <v>0.1592924199237444</v>
       </c>
       <c r="M24">
-        <v>0.2904151013501419</v>
+        <v>0.2404513423751098</v>
       </c>
       <c r="N24">
-        <v>1.067645178390343</v>
+        <v>2.493449938249795</v>
       </c>
       <c r="O24">
-        <v>2.345127344087871</v>
+        <v>4.487948318630345</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9808617555106025</v>
+        <v>1.076785989695537</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08490346671118232</v>
+        <v>0.1941313522831862</v>
       </c>
       <c r="E25">
-        <v>0.0866764298954088</v>
+        <v>0.2269448310274962</v>
       </c>
       <c r="F25">
-        <v>0.8903457560446384</v>
+        <v>1.825268937525017</v>
       </c>
       <c r="G25">
-        <v>0.0008154022246604126</v>
+        <v>0.002490720053650364</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1350894943646188</v>
+        <v>0.3133753120703151</v>
       </c>
       <c r="K25">
-        <v>1.289986393955644</v>
+        <v>0.4232500137970874</v>
       </c>
       <c r="L25">
-        <v>0.2147903076494515</v>
+        <v>0.1469310096170631</v>
       </c>
       <c r="M25">
-        <v>0.2422729900480505</v>
+        <v>0.2286083616364785</v>
       </c>
       <c r="N25">
-        <v>1.157750457542199</v>
+        <v>2.53189272337162</v>
       </c>
       <c r="O25">
-        <v>2.232534101513096</v>
+        <v>4.505758110286592</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.047363247226826</v>
+        <v>0.8506875471359194</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1940990992983416</v>
+        <v>0.08069468316867301</v>
       </c>
       <c r="E2">
-        <v>0.2285010784184545</v>
+        <v>0.08864963730077324</v>
       </c>
       <c r="F2">
-        <v>1.832219175787728</v>
+        <v>0.8608219560705876</v>
       </c>
       <c r="G2">
-        <v>0.002494117940094704</v>
+        <v>0.0008205371960958718</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3153605015601499</v>
+        <v>0.1388210746072631</v>
       </c>
       <c r="K2">
-        <v>0.3618362577875587</v>
+        <v>1.083599790297569</v>
       </c>
       <c r="L2">
-        <v>0.1379720860992535</v>
+        <v>0.1808110528484974</v>
       </c>
       <c r="M2">
-        <v>0.2201592650527857</v>
+        <v>0.2073331592137642</v>
       </c>
       <c r="N2">
-        <v>2.562446059108983</v>
+        <v>1.228519712911181</v>
       </c>
       <c r="O2">
-        <v>4.525278713370056</v>
+        <v>2.162754659316363</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.028272804076835</v>
+        <v>0.7637555361995396</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1941849182040514</v>
+        <v>0.07797626603490215</v>
       </c>
       <c r="E3">
-        <v>0.2296497882683779</v>
+        <v>0.09011450496290507</v>
       </c>
       <c r="F3">
-        <v>1.838472239546746</v>
+        <v>0.8435320811212748</v>
       </c>
       <c r="G3">
-        <v>0.00249658769447901</v>
+        <v>0.0008241730144295061</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3168055990229846</v>
+        <v>0.141494789179657</v>
       </c>
       <c r="K3">
-        <v>0.3202111586456056</v>
+        <v>0.9440080508744586</v>
       </c>
       <c r="L3">
-        <v>0.1319910143878857</v>
+        <v>0.1579273208800629</v>
       </c>
       <c r="M3">
-        <v>0.2146039941685096</v>
+        <v>0.1839147209994678</v>
       </c>
       <c r="N3">
-        <v>2.584557899823347</v>
+        <v>1.279121958746851</v>
       </c>
       <c r="O3">
-        <v>4.542511771281596</v>
+        <v>2.122882005939118</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.016973291525574</v>
+        <v>0.7109466612663766</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1942910189364397</v>
+        <v>0.07637045209606441</v>
       </c>
       <c r="E4">
-        <v>0.230401655981928</v>
+        <v>0.09107601866942794</v>
       </c>
       <c r="F4">
-        <v>1.843074078533647</v>
+        <v>0.8341752480734215</v>
       </c>
       <c r="G4">
-        <v>0.002498186931431273</v>
+        <v>0.0008264843621477724</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3177422708571176</v>
+        <v>0.1432075925331096</v>
       </c>
       <c r="K4">
-        <v>0.2946534944191512</v>
+        <v>0.8583534601964118</v>
       </c>
       <c r="L4">
-        <v>0.1283638274466057</v>
+        <v>0.143933188141439</v>
       </c>
       <c r="M4">
-        <v>0.2112779821511523</v>
+        <v>0.1696473933308589</v>
       </c>
       <c r="N4">
-        <v>2.598828927627177</v>
+        <v>1.311457483669015</v>
       </c>
       <c r="O4">
-        <v>4.555070441406798</v>
+        <v>2.101822250503517</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.012475373485699</v>
+        <v>0.6895602222694208</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1943477343420597</v>
+        <v>0.07573161593323618</v>
       </c>
       <c r="E5">
-        <v>0.2307197797874903</v>
+        <v>0.09148332803413961</v>
       </c>
       <c r="F5">
-        <v>1.845141335098226</v>
+        <v>0.830667446455486</v>
       </c>
       <c r="G5">
-        <v>0.002498859514576418</v>
+        <v>0.0008274463953893973</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3181364141913154</v>
+        <v>0.1439234129069131</v>
       </c>
       <c r="K5">
-        <v>0.2842392006988632</v>
+        <v>0.8234515228349721</v>
       </c>
       <c r="L5">
-        <v>0.1268972113161269</v>
+        <v>0.1382427403070139</v>
       </c>
       <c r="M5">
-        <v>0.2099441089053542</v>
+        <v>0.1638591576743877</v>
       </c>
       <c r="N5">
-        <v>2.604819165332905</v>
+        <v>1.324947260692553</v>
       </c>
       <c r="O5">
-        <v>4.560685942259227</v>
+        <v>2.094067612990017</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.01173496077314</v>
+        <v>0.6860168306408241</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1943579673934508</v>
+        <v>0.07562646606420032</v>
       </c>
       <c r="E6">
-        <v>0.2307733132963827</v>
+        <v>0.09155189310424472</v>
       </c>
       <c r="F6">
-        <v>1.84549620333658</v>
+        <v>0.8301030857569245</v>
       </c>
       <c r="G6">
-        <v>0.002498972459476462</v>
+        <v>0.0008276073649256356</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3182026136181477</v>
+        <v>0.144043350418007</v>
       </c>
       <c r="K6">
-        <v>0.2825099722945197</v>
+        <v>0.8176559567633319</v>
       </c>
       <c r="L6">
-        <v>0.1266543785111836</v>
+        <v>0.1372985321293925</v>
       </c>
       <c r="M6">
-        <v>0.2097239232469654</v>
+        <v>0.1628995206308943</v>
       </c>
       <c r="N6">
-        <v>2.605824392799129</v>
+        <v>1.327205964954458</v>
       </c>
       <c r="O6">
-        <v>4.561648468411164</v>
+        <v>2.092828992543303</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.016912198127528</v>
+        <v>0.7106577070836124</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1942917291809891</v>
+        <v>0.07636177406202194</v>
       </c>
       <c r="E7">
-        <v>0.2304058987765298</v>
+        <v>0.09108144925076544</v>
       </c>
       <c r="F7">
-        <v>1.843101180668697</v>
+        <v>0.8341267197203592</v>
       </c>
       <c r="G7">
-        <v>0.002498195917453064</v>
+        <v>0.000826497254555152</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3177475360003474</v>
+        <v>0.1432171741678232</v>
       </c>
       <c r="K7">
-        <v>0.2945130401595861</v>
+        <v>0.8578827622859535</v>
       </c>
       <c r="L7">
-        <v>0.1283440014558224</v>
+        <v>0.14385639757392</v>
       </c>
       <c r="M7">
-        <v>0.2112599058126641</v>
+        <v>0.1695692295481166</v>
       </c>
       <c r="N7">
-        <v>2.598909006671805</v>
+        <v>1.311638152059167</v>
       </c>
       <c r="O7">
-        <v>4.555144158044584</v>
+        <v>2.101714361410956</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.040693599327597</v>
+        <v>0.8205898850314952</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1941176338501478</v>
+        <v>0.0797440032612684</v>
       </c>
       <c r="E8">
-        <v>0.2288875060515272</v>
+        <v>0.08914176224551795</v>
       </c>
       <c r="F8">
-        <v>1.834217137000827</v>
+        <v>0.8545919928892616</v>
       </c>
       <c r="G8">
-        <v>0.002494952363426184</v>
+        <v>0.0008217746203318032</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3158485388194396</v>
+        <v>0.1397281791891909</v>
       </c>
       <c r="K8">
-        <v>0.3474841952808276</v>
+        <v>1.035450295632074</v>
       </c>
       <c r="L8">
-        <v>0.1359004994121307</v>
+        <v>0.1729077877558609</v>
       </c>
       <c r="M8">
-        <v>0.2182262606427017</v>
+        <v>0.1992338933638038</v>
       </c>
       <c r="N8">
-        <v>2.569926187717686</v>
+        <v>1.245701363265561</v>
       </c>
       <c r="O8">
-        <v>4.530810524410981</v>
+        <v>2.148275837884739</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.090655531594507</v>
+        <v>1.041116652014352</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1941979692905562</v>
+        <v>0.0868969447925636</v>
       </c>
       <c r="E9">
-        <v>0.2262782120474434</v>
+        <v>0.08583645843014853</v>
       </c>
       <c r="F9">
-        <v>1.822835173832935</v>
+        <v>0.9052612170728978</v>
       </c>
       <c r="G9">
-        <v>0.002489245948122587</v>
+        <v>0.0008131261345806622</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3125151916360136</v>
+        <v>0.1334527470815936</v>
       </c>
       <c r="K9">
-        <v>0.4513423616591865</v>
+        <v>1.384636075114969</v>
       </c>
       <c r="L9">
-        <v>0.1510729820181069</v>
+        <v>0.2304222827327465</v>
       </c>
       <c r="M9">
-        <v>0.2325558483941137</v>
+        <v>0.258403210809611</v>
       </c>
       <c r="N9">
-        <v>2.518594418045847</v>
+        <v>1.126694385088589</v>
       </c>
       <c r="O9">
-        <v>4.498764418169145</v>
+        <v>2.268315822728027</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.129365175129124</v>
+        <v>1.206823323461492</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1945115289514305</v>
+        <v>0.09249656421120989</v>
       </c>
       <c r="E10">
-        <v>0.2245841124901569</v>
+        <v>0.08372031572353933</v>
       </c>
       <c r="F10">
-        <v>1.818142933660752</v>
+        <v>0.9497142110441388</v>
       </c>
       <c r="G10">
-        <v>0.002485448362947259</v>
+        <v>0.0008071253486974239</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3103025940868873</v>
+        <v>0.1291903307900419</v>
       </c>
       <c r="K10">
-        <v>0.5276155879779196</v>
+        <v>1.642594852030953</v>
       </c>
       <c r="L10">
-        <v>0.1624312376996784</v>
+        <v>0.2731557550472559</v>
       </c>
       <c r="M10">
-        <v>0.2434853567258344</v>
+        <v>0.3026495119868713</v>
       </c>
       <c r="N10">
-        <v>2.484227585330357</v>
+        <v>1.045900704744524</v>
       </c>
       <c r="O10">
-        <v>4.484753263684127</v>
+        <v>2.376350960258037</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.147404941695214</v>
+        <v>1.283165921651431</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1947089140672276</v>
+        <v>0.09512514919801873</v>
       </c>
       <c r="E11">
-        <v>0.2238615035061651</v>
+        <v>0.08282739561763464</v>
       </c>
       <c r="F11">
-        <v>1.816802847384992</v>
+        <v>0.9716954964391391</v>
       </c>
       <c r="G11">
-        <v>0.002483805669509031</v>
+        <v>0.0008044674526053335</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3093469997838643</v>
+        <v>0.1273275004643635</v>
       </c>
       <c r="K11">
-        <v>0.5623035555405238</v>
+        <v>1.760448980028741</v>
       </c>
       <c r="L11">
-        <v>0.1676432578062759</v>
+        <v>0.2927347777206819</v>
       </c>
       <c r="M11">
-        <v>0.2485434656901262</v>
+        <v>0.3229861017718676</v>
       </c>
       <c r="N11">
-        <v>2.469318109277642</v>
+        <v>1.010673273277928</v>
       </c>
       <c r="O11">
-        <v>4.480445111492628</v>
+        <v>2.430357063088792</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.154297514694008</v>
+        <v>1.312226868887279</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1947914841178573</v>
+        <v>0.09613276916029889</v>
       </c>
       <c r="E12">
-        <v>0.2235947539111853</v>
+        <v>0.08249947263793</v>
       </c>
       <c r="F12">
-        <v>1.8164094097434</v>
+        <v>0.9802890058670073</v>
       </c>
       <c r="G12">
-        <v>0.002483195762388349</v>
+        <v>0.0008034709108500869</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3089924377719679</v>
+        <v>0.1266331135710264</v>
       </c>
       <c r="K12">
-        <v>0.5754371771199089</v>
+        <v>1.805167203016282</v>
       </c>
       <c r="L12">
-        <v>0.1696232899768404</v>
+        <v>0.3001719049503322</v>
       </c>
       <c r="M12">
-        <v>0.2504711097603973</v>
+        <v>0.3307204875725276</v>
       </c>
       <c r="N12">
-        <v>2.46377631726255</v>
+        <v>0.9975608077850175</v>
       </c>
       <c r="O12">
-        <v>4.479110356870905</v>
+        <v>2.451555534473812</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.15281035891158</v>
+        <v>1.305961106791756</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1947733539379044</v>
+        <v>0.09591520715538593</v>
       </c>
       <c r="E13">
-        <v>0.2236518972703623</v>
+        <v>0.08256963980343546</v>
       </c>
       <c r="F13">
-        <v>1.816489075758241</v>
+        <v>0.9784259689868975</v>
       </c>
       <c r="G13">
-        <v>0.002483326577592793</v>
+        <v>0.0008036850980326925</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.309068474695767</v>
+        <v>0.1267821705775578</v>
       </c>
       <c r="K13">
-        <v>0.5726087141951268</v>
+        <v>1.795532081622667</v>
       </c>
       <c r="L13">
-        <v>0.1691965741440811</v>
+        <v>0.2985691156268047</v>
       </c>
       <c r="M13">
-        <v>0.2500554147838159</v>
+        <v>0.3290532097961076</v>
       </c>
       <c r="N13">
-        <v>2.464965211790842</v>
+        <v>1.000374566246344</v>
       </c>
       <c r="O13">
-        <v>4.479384632666438</v>
+        <v>2.44695600904879</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.147970772667264</v>
+        <v>1.285553664155344</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1947155506105389</v>
+        <v>0.09520779832566006</v>
       </c>
       <c r="E14">
-        <v>0.2238394199620704</v>
+        <v>0.08280021157471218</v>
       </c>
       <c r="F14">
-        <v>1.816768195055744</v>
+        <v>0.9723969856189996</v>
       </c>
       <c r="G14">
-        <v>0.002483755248817679</v>
+        <v>0.0008043852694666695</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3093176835627132</v>
+        <v>0.1272701514081636</v>
       </c>
       <c r="K14">
-        <v>0.5633841094751233</v>
+        <v>1.764126084459178</v>
       </c>
       <c r="L14">
-        <v>0.1678060296661954</v>
+        <v>0.2933461565991706</v>
       </c>
       <c r="M14">
-        <v>0.2487018095220961</v>
+        <v>0.3236217257842426</v>
       </c>
       <c r="N14">
-        <v>2.468860096504289</v>
+        <v>1.009589898109372</v>
       </c>
       <c r="O14">
-        <v>4.480329357314901</v>
+        <v>2.43208580248529</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.145014352003585</v>
+        <v>1.273073678274187</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1946811619833753</v>
+        <v>0.09477609961967914</v>
       </c>
       <c r="E15">
-        <v>0.2239551792284589</v>
+        <v>0.08294277815130524</v>
       </c>
       <c r="F15">
-        <v>1.816954006584993</v>
+        <v>0.9687396919286186</v>
       </c>
       <c r="G15">
-        <v>0.002484019402542766</v>
+        <v>0.0008048154279196801</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3094712813067506</v>
+        <v>0.127570492012075</v>
       </c>
       <c r="K15">
-        <v>0.5577334983305775</v>
+        <v>1.7449011586111</v>
       </c>
       <c r="L15">
-        <v>0.1669551045173705</v>
+        <v>0.2901500263382246</v>
       </c>
       <c r="M15">
-        <v>0.2478742777973579</v>
+        <v>0.3202992326617249</v>
       </c>
       <c r="N15">
-        <v>2.471259382250764</v>
+        <v>1.015264413527726</v>
       </c>
       <c r="O15">
-        <v>4.480946649624883</v>
+        <v>2.423076220058192</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.128194845826499</v>
+        <v>1.201854631365819</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1944997269028832</v>
+        <v>0.09232646137267153</v>
       </c>
       <c r="E16">
-        <v>0.22463230158837</v>
+        <v>0.08378008835739958</v>
       </c>
       <c r="F16">
-        <v>1.818246479163363</v>
+        <v>0.9483144871268223</v>
       </c>
       <c r="G16">
-        <v>0.002485557419528423</v>
+        <v>0.0008073004620087975</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3103660672844661</v>
+        <v>0.1293136099975354</v>
       </c>
       <c r="K16">
-        <v>0.5253484089832341</v>
+        <v>1.634904397914596</v>
       </c>
       <c r="L16">
-        <v>0.1620915161097258</v>
+        <v>0.271879270379813</v>
       </c>
       <c r="M16">
-        <v>0.2431565195306504</v>
+        <v>0.3013249491041279</v>
       </c>
       <c r="N16">
-        <v>2.485216524008639</v>
+        <v>1.048234276910033</v>
       </c>
       <c r="O16">
-        <v>4.485076344018495</v>
+        <v>2.372923421270116</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.117986466268405</v>
+        <v>1.158419629959184</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1944024099422492</v>
+        <v>0.09084488346590547</v>
       </c>
       <c r="E17">
-        <v>0.2250599840169052</v>
+        <v>0.08431173413680249</v>
       </c>
       <c r="F17">
-        <v>1.81924269053458</v>
+        <v>0.9362464415814884</v>
       </c>
       <c r="G17">
-        <v>0.002486522634949468</v>
+        <v>0.0008088430910387249</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3109280171694575</v>
+        <v>0.1304025153688957</v>
       </c>
       <c r="K17">
-        <v>0.5054784115311577</v>
+        <v>1.567566247107123</v>
       </c>
       <c r="L17">
-        <v>0.1591193182569981</v>
+        <v>0.2607084700526059</v>
       </c>
       <c r="M17">
-        <v>0.2402843038055948</v>
+        <v>0.2897406118979049</v>
       </c>
       <c r="N17">
-        <v>2.493964231918281</v>
+        <v>1.068856581053328</v>
       </c>
       <c r="O17">
-        <v>4.488138554595025</v>
+        <v>2.343434762838427</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.112155438651968</v>
+        <v>1.133526646168605</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1943515915288714</v>
+        <v>0.0900003360165158</v>
       </c>
       <c r="E18">
-        <v>0.2253104992136512</v>
+        <v>0.08462407409394235</v>
       </c>
       <c r="F18">
-        <v>1.819890474016731</v>
+        <v>0.9294697639837608</v>
       </c>
       <c r="G18">
-        <v>0.002487085790743094</v>
+        <v>0.0008097371620015505</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3112560307427077</v>
+        <v>0.1310359891895789</v>
       </c>
       <c r="K18">
-        <v>0.4940488963437701</v>
+        <v>1.528881827749245</v>
       </c>
       <c r="L18">
-        <v>0.1574140408273621</v>
+        <v>0.2542962496938799</v>
       </c>
       <c r="M18">
-        <v>0.238640405794257</v>
+        <v>0.2830970405625735</v>
       </c>
       <c r="N18">
-        <v>2.499063845996414</v>
+        <v>1.080861116496671</v>
       </c>
       <c r="O18">
-        <v>4.490094303151153</v>
+        <v>2.326928054423945</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.110188138046055</v>
+        <v>1.125113319093913</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1943352722437055</v>
+        <v>0.08971567899838817</v>
       </c>
       <c r="E19">
-        <v>0.2253960969595088</v>
+        <v>0.08473094690871541</v>
       </c>
       <c r="F19">
-        <v>1.820122654025624</v>
+        <v>0.9272030669200504</v>
       </c>
       <c r="G19">
-        <v>0.00248727783952168</v>
+        <v>0.0008100410570114362</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3113679147131219</v>
+        <v>0.1312517008156688</v>
       </c>
       <c r="K19">
-        <v>0.490178938141554</v>
+        <v>1.515791486953702</v>
       </c>
       <c r="L19">
-        <v>0.1568373974947548</v>
+        <v>0.2521273163966953</v>
       </c>
       <c r="M19">
-        <v>0.2380852101498974</v>
+        <v>0.2808508807342918</v>
       </c>
       <c r="N19">
-        <v>2.500802195922608</v>
+        <v>1.084949994278055</v>
       </c>
       <c r="O19">
-        <v>4.490789893909692</v>
+        <v>2.321415778183535</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.119068972061655</v>
+        <v>1.16303398441093</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1944122362469329</v>
+        <v>0.09100180781229028</v>
       </c>
       <c r="E20">
-        <v>0.225013988480165</v>
+        <v>0.08425446022055372</v>
       </c>
       <c r="F20">
-        <v>1.81912890330571</v>
+        <v>0.9375139586474148</v>
       </c>
       <c r="G20">
-        <v>0.002486419059561736</v>
+        <v>0.0008086781754355483</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3108677005584148</v>
+        <v>0.1302858575365935</v>
       </c>
       <c r="K20">
-        <v>0.5075936960635374</v>
+        <v>1.574729559027901</v>
       </c>
       <c r="L20">
-        <v>0.1594352746585912</v>
+        <v>0.2618962621438072</v>
       </c>
       <c r="M20">
-        <v>0.2405892163068799</v>
+        <v>0.2909717495903195</v>
       </c>
       <c r="N20">
-        <v>2.493025969010783</v>
+        <v>1.066646431900227</v>
       </c>
       <c r="O20">
-        <v>4.487792455371846</v>
+        <v>2.34652651137921</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.149390617512381</v>
+        <v>1.291543597940404</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1947323168726172</v>
+        <v>0.09541524498545328</v>
       </c>
       <c r="E21">
-        <v>0.2237841532733107</v>
+        <v>0.08273220856809083</v>
       </c>
       <c r="F21">
-        <v>1.816683118089145</v>
+        <v>0.9741603870698583</v>
       </c>
       <c r="G21">
-        <v>0.002483629008470917</v>
+        <v>0.0008041793454755186</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3092442869138265</v>
+        <v>0.1271265197400542</v>
       </c>
       <c r="K21">
-        <v>0.5660936578333349</v>
+        <v>1.773348223116017</v>
       </c>
       <c r="L21">
-        <v>0.1682142949045158</v>
+        <v>0.2948796182457869</v>
       </c>
       <c r="M21">
-        <v>0.2490990649919311</v>
+        <v>0.3252161511198892</v>
       </c>
       <c r="N21">
-        <v>2.467713249361881</v>
+        <v>1.006876894362664</v>
       </c>
       <c r="O21">
-        <v>4.48004382084406</v>
+        <v>2.436432851355192</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.169564615204251</v>
+        <v>1.37642289083314</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1949870937194476</v>
+        <v>0.09837125452787632</v>
       </c>
       <c r="E22">
-        <v>0.2230205159191305</v>
+        <v>0.08179691140424161</v>
       </c>
       <c r="F22">
-        <v>1.81574917513781</v>
+        <v>0.9996913377647871</v>
       </c>
       <c r="G22">
-        <v>0.00248187631700242</v>
+        <v>0.0008012968736931816</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3082258366723964</v>
+        <v>0.1251260184649086</v>
       </c>
       <c r="K22">
-        <v>0.6043150446333527</v>
+        <v>1.903686734157446</v>
       </c>
       <c r="L22">
-        <v>0.1739888630590087</v>
+        <v>0.3165715885254201</v>
       </c>
       <c r="M22">
-        <v>0.2547320638073671</v>
+        <v>0.3477930150310016</v>
       </c>
       <c r="N22">
-        <v>2.451776703163286</v>
+        <v>0.9691435504692802</v>
       </c>
       <c r="O22">
-        <v>4.476708562022452</v>
+        <v>2.499573951082454</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.158764903956808</v>
+        <v>1.33103506265644</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1948469591607207</v>
+        <v>0.0967868394579412</v>
       </c>
       <c r="E23">
-        <v>0.2234244188273156</v>
+        <v>0.08229058306959747</v>
       </c>
       <c r="F23">
-        <v>1.816186905585866</v>
+        <v>0.9859145886312604</v>
       </c>
       <c r="G23">
-        <v>0.002482805304347702</v>
+        <v>0.0008028301522472979</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3087655172949697</v>
+        <v>0.1261878137418631</v>
       </c>
       <c r="K23">
-        <v>0.5839168583581511</v>
+        <v>1.834068393781877</v>
       </c>
       <c r="L23">
-        <v>0.170903527801201</v>
+        <v>0.3049807567086873</v>
       </c>
       <c r="M23">
-        <v>0.2517191501933951</v>
+        <v>0.3357242036227532</v>
       </c>
       <c r="N23">
-        <v>2.460226827092338</v>
+        <v>0.9891581369050679</v>
       </c>
       <c r="O23">
-        <v>4.478330581590484</v>
+        <v>2.465456479638107</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.118579453073949</v>
+        <v>1.160947591635761</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1944077777913051</v>
+        <v>0.0909308398314792</v>
       </c>
       <c r="E24">
-        <v>0.2250347686239698</v>
+        <v>0.08428033293463688</v>
       </c>
       <c r="F24">
-        <v>1.819180112725277</v>
+        <v>0.9369404126974104</v>
       </c>
       <c r="G24">
-        <v>0.00248646586022698</v>
+        <v>0.0008087527113242437</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3108949543061277</v>
+        <v>0.1303385753504807</v>
       </c>
       <c r="K24">
-        <v>0.5066373945328451</v>
+        <v>1.571490936047894</v>
       </c>
       <c r="L24">
-        <v>0.1592924199237444</v>
+        <v>0.2613592303441408</v>
       </c>
       <c r="M24">
-        <v>0.2404513423751098</v>
+        <v>0.2904151013501419</v>
       </c>
       <c r="N24">
-        <v>2.493449938249795</v>
+        <v>1.067645178390396</v>
       </c>
       <c r="O24">
-        <v>4.487948318630345</v>
+        <v>2.345127344087871</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.076785989695537</v>
+        <v>0.9808617555107162</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1941313522831862</v>
+        <v>0.08490346671135285</v>
       </c>
       <c r="E25">
-        <v>0.2269448310274962</v>
+        <v>0.08667642989541235</v>
       </c>
       <c r="F25">
-        <v>1.825268937525017</v>
+        <v>0.8903457560446455</v>
       </c>
       <c r="G25">
-        <v>0.002490720053650364</v>
+        <v>0.0008154022246856185</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3133753120703151</v>
+        <v>0.1350894943645606</v>
       </c>
       <c r="K25">
-        <v>0.4232500137970874</v>
+        <v>1.289986393955672</v>
       </c>
       <c r="L25">
-        <v>0.1469310096170631</v>
+        <v>0.214790307649352</v>
       </c>
       <c r="M25">
-        <v>0.2286083616364785</v>
+        <v>0.2422729900480505</v>
       </c>
       <c r="N25">
-        <v>2.53189272337162</v>
+        <v>1.157750457542264</v>
       </c>
       <c r="O25">
-        <v>4.505758110286592</v>
+        <v>2.232534101513096</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8506875471359194</v>
+        <v>2.337044286468824</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08069468316867301</v>
+        <v>0.1413194665364834</v>
       </c>
       <c r="E2">
-        <v>0.08864963730077324</v>
+        <v>0.2838740278280838</v>
       </c>
       <c r="F2">
-        <v>0.8608219560705876</v>
+        <v>0.3735877852670484</v>
       </c>
       <c r="G2">
-        <v>0.0008205371960958718</v>
+        <v>0.293536585502963</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002938931272778805</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02227336523945</v>
       </c>
       <c r="J2">
-        <v>0.1388210746072631</v>
+        <v>0.2324427268831073</v>
       </c>
       <c r="K2">
-        <v>1.083599790297569</v>
+        <v>0.4413008012529609</v>
       </c>
       <c r="L2">
-        <v>0.1808110528484974</v>
+        <v>0.5324992266217805</v>
       </c>
       <c r="M2">
-        <v>0.2073331592137642</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.228519712911181</v>
+        <v>1.108220680078119</v>
       </c>
       <c r="O2">
-        <v>2.162754659316363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.7967350957791339</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.059416387248262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7637555361995396</v>
+        <v>2.04013761544735</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07797626603490215</v>
+        <v>0.1404791075603065</v>
       </c>
       <c r="E3">
-        <v>0.09011450496290507</v>
+        <v>0.2659643926327888</v>
       </c>
       <c r="F3">
-        <v>0.8435320811212748</v>
+        <v>0.366091488116588</v>
       </c>
       <c r="G3">
-        <v>0.0008241730144295061</v>
+        <v>0.2695339463067228</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004471418928769566</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02537094298900477</v>
       </c>
       <c r="J3">
-        <v>0.141494789179657</v>
+        <v>0.226071502025583</v>
       </c>
       <c r="K3">
-        <v>0.9440080508744586</v>
+        <v>0.444940779632141</v>
       </c>
       <c r="L3">
-        <v>0.1579273208800629</v>
+        <v>0.4879315284107832</v>
       </c>
       <c r="M3">
-        <v>0.1839147209994678</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.279121958746851</v>
+        <v>0.9675960086808288</v>
       </c>
       <c r="O3">
-        <v>2.122882005939118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6953998577352465</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.9948701090851699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7109466612663766</v>
+        <v>1.857268743647694</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07637045209606441</v>
+        <v>0.1400344735868373</v>
       </c>
       <c r="E4">
-        <v>0.09107601866942794</v>
+        <v>0.2550723490936768</v>
       </c>
       <c r="F4">
-        <v>0.8341752480734215</v>
+        <v>0.3621664262102513</v>
       </c>
       <c r="G4">
-        <v>0.0008264843621477724</v>
+        <v>0.2552941853618691</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005607451514547154</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02746171440715184</v>
       </c>
       <c r="J4">
-        <v>0.1432075925331096</v>
+        <v>0.2225034722986763</v>
       </c>
       <c r="K4">
-        <v>0.8583534601964118</v>
+        <v>0.4480864874169619</v>
       </c>
       <c r="L4">
-        <v>0.143933188141439</v>
+        <v>0.4607521167468036</v>
       </c>
       <c r="M4">
-        <v>0.1696473933308589</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.311457483669015</v>
+        <v>0.8817390959428053</v>
       </c>
       <c r="O4">
-        <v>2.101822250503517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6332257216204979</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.9570050195343498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6895602222694208</v>
+        <v>1.782309442744207</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07573161593323618</v>
+        <v>0.1399166099693439</v>
       </c>
       <c r="E5">
-        <v>0.09148332803413961</v>
+        <v>0.2509771078025835</v>
       </c>
       <c r="F5">
-        <v>0.830667446455486</v>
+        <v>0.3603015060959365</v>
       </c>
       <c r="G5">
-        <v>0.0008274463953893973</v>
+        <v>0.2492949157854198</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00611695842929072</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02845235985954364</v>
       </c>
       <c r="J5">
-        <v>0.1439234129069131</v>
+        <v>0.2209640902616314</v>
       </c>
       <c r="K5">
-        <v>0.8234515228349721</v>
+        <v>0.4501583126904443</v>
       </c>
       <c r="L5">
-        <v>0.1382427403070139</v>
+        <v>0.4504326901766404</v>
       </c>
       <c r="M5">
-        <v>0.1638591576743877</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.324947260692553</v>
+        <v>0.8486048769619572</v>
       </c>
       <c r="O5">
-        <v>2.094067612990017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6084072912198835</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.9409773072641485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6860168306408241</v>
+        <v>1.769497320951643</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07562646606420032</v>
+        <v>0.1399545225573959</v>
       </c>
       <c r="E6">
-        <v>0.09155189310424472</v>
+        <v>0.2506895295778051</v>
       </c>
       <c r="F6">
-        <v>0.8301030857569245</v>
+        <v>0.3594780265432789</v>
       </c>
       <c r="G6">
-        <v>0.0008276073649256356</v>
+        <v>0.2479225069368454</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.006204298253113597</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02874036354088449</v>
       </c>
       <c r="J6">
-        <v>0.144043350418007</v>
+        <v>0.2205077403174514</v>
       </c>
       <c r="K6">
-        <v>0.8176559567633319</v>
+        <v>0.4512160335118871</v>
       </c>
       <c r="L6">
-        <v>0.1372985321293925</v>
+        <v>0.4495964967814245</v>
       </c>
       <c r="M6">
-        <v>0.1628995206308943</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.327205964954458</v>
+        <v>0.8452423234624575</v>
       </c>
       <c r="O6">
-        <v>2.092828992543303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.604911502985999</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.9370980951060233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7106577070836124</v>
+        <v>1.855282235561134</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07636177406202194</v>
+        <v>0.1401896199222143</v>
       </c>
       <c r="E7">
-        <v>0.09108144925076544</v>
+        <v>0.2560901991707141</v>
       </c>
       <c r="F7">
-        <v>0.8341267197203592</v>
+        <v>0.3607146464278372</v>
       </c>
       <c r="G7">
-        <v>0.000826497254555152</v>
+        <v>0.2541676569177369</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005613913083180225</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02778764201876793</v>
       </c>
       <c r="J7">
-        <v>0.1432171741678232</v>
+        <v>0.2219221792181898</v>
       </c>
       <c r="K7">
-        <v>0.8578827622859535</v>
+        <v>0.4500449826897928</v>
       </c>
       <c r="L7">
-        <v>0.14385639757392</v>
+        <v>0.4630111914013355</v>
       </c>
       <c r="M7">
-        <v>0.1695692295481166</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.311638152059167</v>
+        <v>0.8871254929037491</v>
       </c>
       <c r="O7">
-        <v>2.101714361410956</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.634600903527712</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.9533991995830462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8205898850314952</v>
+        <v>2.233478840736836</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0797440032612684</v>
+        <v>0.1412350173420229</v>
       </c>
       <c r="E8">
-        <v>0.08914176224551795</v>
+        <v>0.2791234291666811</v>
       </c>
       <c r="F8">
-        <v>0.8545919928892616</v>
+        <v>0.3689892162993189</v>
       </c>
       <c r="G8">
-        <v>0.0008217746203318032</v>
+        <v>0.2837751663322123</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.003424330402112957</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.02367743396670274</v>
       </c>
       <c r="J8">
-        <v>0.1397281791891909</v>
+        <v>0.2294376782524168</v>
       </c>
       <c r="K8">
-        <v>1.035450295632074</v>
+        <v>0.4450164201662723</v>
       </c>
       <c r="L8">
-        <v>0.1729077877558609</v>
+        <v>0.5203130058353054</v>
       </c>
       <c r="M8">
-        <v>0.1992338933638038</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.245701363265561</v>
+        <v>1.067397804574682</v>
       </c>
       <c r="O8">
-        <v>2.148275837884739</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7640606624127813</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.032322603143101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.041116652014352</v>
+        <v>2.972710615534936</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0868969447925636</v>
+        <v>0.1435616753171516</v>
       </c>
       <c r="E9">
-        <v>0.08583645843014853</v>
+        <v>0.3232145457564215</v>
       </c>
       <c r="F9">
-        <v>0.9052612170728978</v>
+        <v>0.3934696280364776</v>
       </c>
       <c r="G9">
-        <v>0.0008131261345806622</v>
+        <v>0.3480464648297215</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0007972361013585672</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01672300996852716</v>
       </c>
       <c r="J9">
-        <v>0.1334527470815936</v>
+        <v>0.248071522361144</v>
       </c>
       <c r="K9">
-        <v>1.384636075114969</v>
+        <v>0.4390814262815894</v>
       </c>
       <c r="L9">
-        <v>0.2304222827327465</v>
+        <v>0.6299179492027633</v>
       </c>
       <c r="M9">
-        <v>0.258403210809611</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.126694385088589</v>
+        <v>1.414683891944236</v>
       </c>
       <c r="O9">
-        <v>2.268315822728027</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.015401344996135</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.208342179471117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.206823323461492</v>
+        <v>3.514836290267567</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09249656421120989</v>
+        <v>0.1471160734443586</v>
       </c>
       <c r="E10">
-        <v>0.08372031572353933</v>
+        <v>0.3639213718099086</v>
       </c>
       <c r="F10">
-        <v>0.9497142110441388</v>
+        <v>0.4071779644798639</v>
       </c>
       <c r="G10">
-        <v>0.0008071253486974239</v>
+        <v>0.3921411315695735</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0002502246205464687</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01289914757780508</v>
       </c>
       <c r="J10">
-        <v>0.1291903307900419</v>
+        <v>0.2605181774392662</v>
       </c>
       <c r="K10">
-        <v>1.642594852030953</v>
+        <v>0.4480479455584998</v>
       </c>
       <c r="L10">
-        <v>0.2731557550472559</v>
+        <v>0.7282728039974842</v>
       </c>
       <c r="M10">
-        <v>0.3026495119868713</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.045900704744524</v>
+        <v>1.666388997997302</v>
       </c>
       <c r="O10">
-        <v>2.376350960258037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.198718654567244</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.328392428090694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.283165921651431</v>
+        <v>3.773069332334387</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09512514919801873</v>
+        <v>0.1637583220503203</v>
       </c>
       <c r="E11">
-        <v>0.08282739561763464</v>
+        <v>0.453935780365768</v>
       </c>
       <c r="F11">
-        <v>0.9716954964391391</v>
+        <v>0.3486911250738558</v>
       </c>
       <c r="G11">
-        <v>0.0008044674526053335</v>
+        <v>0.3615196815072892</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01877331253381698</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01221185042653161</v>
       </c>
       <c r="J11">
-        <v>0.1273275004643635</v>
+        <v>0.2401085934461236</v>
       </c>
       <c r="K11">
-        <v>1.760448980028741</v>
+        <v>0.5294461155923145</v>
       </c>
       <c r="L11">
-        <v>0.2927347777206819</v>
+        <v>0.9259631295059307</v>
       </c>
       <c r="M11">
-        <v>0.3229861017718676</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.010673273277928</v>
+        <v>1.706308536622515</v>
       </c>
       <c r="O11">
-        <v>2.430357063088792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.259929363149794</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.220981265891197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.312226868887279</v>
+        <v>3.87862456485027</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09613276916029889</v>
+        <v>0.180040408112589</v>
       </c>
       <c r="E12">
-        <v>0.08249947263793</v>
+        <v>0.5292343046177308</v>
       </c>
       <c r="F12">
-        <v>0.9802890058670073</v>
+        <v>0.3011531061895809</v>
       </c>
       <c r="G12">
-        <v>0.0008034709108500869</v>
+        <v>0.3287121210288149</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05743609185096687</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01182363773320017</v>
       </c>
       <c r="J12">
-        <v>0.1266331135710264</v>
+        <v>0.2212872159127244</v>
       </c>
       <c r="K12">
-        <v>1.805167203016282</v>
+        <v>0.6043228402659651</v>
       </c>
       <c r="L12">
-        <v>0.3001719049503322</v>
+        <v>1.086970273484269</v>
       </c>
       <c r="M12">
-        <v>0.3307204875725276</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9975608077850175</v>
+        <v>1.675717256621539</v>
       </c>
       <c r="O12">
-        <v>2.451555534473812</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.269269796198245</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.112122378842116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.305961106791756</v>
+        <v>3.870218794882931</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09591520715538593</v>
+        <v>0.1969835532860458</v>
       </c>
       <c r="E13">
-        <v>0.08256963980343546</v>
+        <v>0.5984014010637964</v>
       </c>
       <c r="F13">
-        <v>0.9784259689868975</v>
+        <v>0.2568298929385833</v>
       </c>
       <c r="G13">
-        <v>0.0008036850980326925</v>
+        <v>0.2905029796741161</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131802839605456</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01204989300196857</v>
       </c>
       <c r="J13">
-        <v>0.1267821705775578</v>
+        <v>0.2016087496617729</v>
       </c>
       <c r="K13">
-        <v>1.795532081622667</v>
+        <v>0.6802080575831511</v>
       </c>
       <c r="L13">
-        <v>0.2985691156268047</v>
+        <v>1.231100031384727</v>
       </c>
       <c r="M13">
-        <v>0.3290532097961076</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.000374566246344</v>
+        <v>1.598566677069584</v>
       </c>
       <c r="O13">
-        <v>2.44695600904879</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.241843882889512</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9899176599754185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.285553664155344</v>
+        <v>3.812301697622559</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09520779832566006</v>
+        <v>0.2095246189028046</v>
       </c>
       <c r="E14">
-        <v>0.08280021157471218</v>
+        <v>0.6452145129850848</v>
       </c>
       <c r="F14">
-        <v>0.9723969856189996</v>
+        <v>0.2275229277441326</v>
       </c>
       <c r="G14">
-        <v>0.0008043852694666695</v>
+        <v>0.2613904066440114</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625262631141453</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01258225766804788</v>
       </c>
       <c r="J14">
-        <v>0.1272701514081636</v>
+        <v>0.18744712381217</v>
       </c>
       <c r="K14">
-        <v>1.764126084459178</v>
+        <v>0.7355536887295457</v>
       </c>
       <c r="L14">
-        <v>0.2933461565991706</v>
+        <v>1.326649871897672</v>
       </c>
       <c r="M14">
-        <v>0.3236217257842426</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.009589898109372</v>
+        <v>1.525530582798808</v>
       </c>
       <c r="O14">
-        <v>2.43208580248529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.206570826680178</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8985027179659824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.273073678274187</v>
+        <v>3.773359208636464</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09477609961967914</v>
+        <v>0.2124214409052883</v>
       </c>
       <c r="E15">
-        <v>0.08294277815130524</v>
+        <v>0.6545975227484178</v>
       </c>
       <c r="F15">
-        <v>0.9687396919286186</v>
+        <v>0.2203764061002431</v>
       </c>
       <c r="G15">
-        <v>0.0008048154279196801</v>
+        <v>0.2527576681632411</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1750408457729264</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01298930077300664</v>
       </c>
       <c r="J15">
-        <v>0.127570492012075</v>
+        <v>0.1836258544618943</v>
       </c>
       <c r="K15">
-        <v>1.7449011586111</v>
+        <v>0.7490104904275583</v>
       </c>
       <c r="L15">
-        <v>0.2901500263382246</v>
+        <v>1.345028050220293</v>
       </c>
       <c r="M15">
-        <v>0.3202992326617249</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.015264413527726</v>
+        <v>1.500411187551606</v>
       </c>
       <c r="O15">
-        <v>2.423076220058192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.190981006443621</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.8721673323390604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.201854631365819</v>
+        <v>3.54002527746627</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09232646137267153</v>
+        <v>0.2068096911678623</v>
       </c>
       <c r="E16">
-        <v>0.08378008835739958</v>
+        <v>0.6212376352291713</v>
       </c>
       <c r="F16">
-        <v>0.9483144871268223</v>
+        <v>0.222281229455664</v>
       </c>
       <c r="G16">
-        <v>0.0008073004620087975</v>
+        <v>0.2407689196241449</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1624099386201863</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.0146768383495246</v>
       </c>
       <c r="J16">
-        <v>0.1293136099975354</v>
+        <v>0.1817287192866743</v>
       </c>
       <c r="K16">
-        <v>1.634904397914596</v>
+        <v>0.726570203101744</v>
       </c>
       <c r="L16">
-        <v>0.271879270379813</v>
+        <v>1.269934344627245</v>
       </c>
       <c r="M16">
-        <v>0.3013249491041279</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.048234276910033</v>
+        <v>1.412882084783149</v>
       </c>
       <c r="O16">
-        <v>2.372923421270116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>1.119092135957743</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.8425607714397643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.158419629959184</v>
+        <v>3.392280500180505</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09084488346590547</v>
+        <v>0.1957176877175186</v>
       </c>
       <c r="E17">
-        <v>0.08431173413680249</v>
+        <v>0.5704960089607169</v>
       </c>
       <c r="F17">
-        <v>0.9362464415814884</v>
+        <v>0.2391617495772707</v>
       </c>
       <c r="G17">
-        <v>0.0008088430910387249</v>
+        <v>0.2470204418078836</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.124766363070961</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01574067034252291</v>
       </c>
       <c r="J17">
-        <v>0.1304025153688957</v>
+        <v>0.1878268666949126</v>
       </c>
       <c r="K17">
-        <v>1.567566247107123</v>
+        <v>0.6799919082707717</v>
       </c>
       <c r="L17">
-        <v>0.2607084700526059</v>
+        <v>1.161081217212256</v>
       </c>
       <c r="M17">
-        <v>0.2897406118979049</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.068856581053328</v>
+        <v>1.384744282933582</v>
       </c>
       <c r="O17">
-        <v>2.343434762838427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>1.082849870368278</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8684385685657645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.133526646168605</v>
+        <v>3.302017925843643</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0900003360165158</v>
+        <v>0.1797983087381212</v>
       </c>
       <c r="E18">
-        <v>0.08462407409394235</v>
+        <v>0.5018516075876889</v>
       </c>
       <c r="F18">
-        <v>0.9294697639837608</v>
+        <v>0.2731026847032041</v>
       </c>
       <c r="G18">
-        <v>0.0008097371620015505</v>
+        <v>0.2708374916699938</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07205257087671413</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0159778617755606</v>
       </c>
       <c r="J18">
-        <v>0.1310359891895789</v>
+        <v>0.2020215208467562</v>
       </c>
       <c r="K18">
-        <v>1.528881827749245</v>
+        <v>0.6094393351913467</v>
       </c>
       <c r="L18">
-        <v>0.2542962496938799</v>
+        <v>1.015981584031806</v>
       </c>
       <c r="M18">
-        <v>0.2830970405625735</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.080861116496671</v>
+        <v>1.399145795891968</v>
       </c>
       <c r="O18">
-        <v>2.326928054423945</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>1.071295032146153</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9485589680335522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.125113319093913</v>
+        <v>3.262473919666093</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08971567899838817</v>
+        <v>0.1639842540131937</v>
       </c>
       <c r="E19">
-        <v>0.08473094690871541</v>
+        <v>0.4328925156634895</v>
       </c>
       <c r="F19">
-        <v>0.9272030669200504</v>
+        <v>0.3187202470321395</v>
       </c>
       <c r="G19">
-        <v>0.0008100410570114362</v>
+        <v>0.3064572434146839</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02679831266693355</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01608329261284069</v>
       </c>
       <c r="J19">
-        <v>0.1312517008156688</v>
+        <v>0.2212062984152539</v>
       </c>
       <c r="K19">
-        <v>1.515791486953702</v>
+        <v>0.5383450500174121</v>
       </c>
       <c r="L19">
-        <v>0.2521273163966953</v>
+        <v>0.8703237152126491</v>
       </c>
       <c r="M19">
-        <v>0.2808508807342918</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.084949994278055</v>
+        <v>1.457440663074124</v>
       </c>
       <c r="O19">
-        <v>2.321415778183535</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.083411642775346</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.064202215827265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.16303398441093</v>
+        <v>3.369530631353769</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09100180781229028</v>
+        <v>0.1468118420290878</v>
       </c>
       <c r="E20">
-        <v>0.08425446022055372</v>
+        <v>0.3570722565930922</v>
       </c>
       <c r="F20">
-        <v>0.9375139586474148</v>
+        <v>0.3986986362468983</v>
       </c>
       <c r="G20">
-        <v>0.0008086781754355483</v>
+        <v>0.3768886534389679</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0002919844298081564</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01474355466521793</v>
       </c>
       <c r="J20">
-        <v>0.1302858575365935</v>
+        <v>0.255288452518343</v>
       </c>
       <c r="K20">
-        <v>1.574729559027901</v>
+        <v>0.4525625061763563</v>
       </c>
       <c r="L20">
-        <v>0.2618962621438072</v>
+        <v>0.7109128459065914</v>
       </c>
       <c r="M20">
-        <v>0.2909717495903195</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.066646431900227</v>
+        <v>1.618297558036915</v>
       </c>
       <c r="O20">
-        <v>2.34652651137921</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.15587476027288</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.28497949271943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.291543597940404</v>
+        <v>3.783323518981774</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09541524498545328</v>
+        <v>0.1474151537808197</v>
       </c>
       <c r="E21">
-        <v>0.08273220856809083</v>
+        <v>0.3767798969427432</v>
       </c>
       <c r="F21">
-        <v>0.9741603870698583</v>
+        <v>0.4233663465081392</v>
       </c>
       <c r="G21">
-        <v>0.0008041793454755186</v>
+        <v>0.4216847862122393</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.180912064951967E-05</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01190626379580006</v>
       </c>
       <c r="J21">
-        <v>0.1271265197400542</v>
+        <v>0.270584171534594</v>
       </c>
       <c r="K21">
-        <v>1.773348223116017</v>
+        <v>0.4487329153778958</v>
       </c>
       <c r="L21">
-        <v>0.2948796182457869</v>
+        <v>0.7613462182269757</v>
       </c>
       <c r="M21">
-        <v>0.3252161511198892</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.006876894362664</v>
+        <v>1.823674660193632</v>
       </c>
       <c r="O21">
-        <v>2.436432851355192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.30005837704573</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.412348186047581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.37642289083314</v>
+        <v>4.055666894704075</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09837125452787632</v>
+        <v>0.1483394124768864</v>
       </c>
       <c r="E22">
-        <v>0.08179691140424161</v>
+        <v>0.3919490743534482</v>
       </c>
       <c r="F22">
-        <v>0.9996913377647871</v>
+        <v>0.4382836586041492</v>
       </c>
       <c r="G22">
-        <v>0.0008012968736931816</v>
+        <v>0.4500861693501861</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0001862429553209921</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.009954663703220845</v>
       </c>
       <c r="J22">
-        <v>0.1251260184649086</v>
+        <v>0.2802017277847142</v>
       </c>
       <c r="K22">
-        <v>1.903686734157446</v>
+        <v>0.4480612628907252</v>
       </c>
       <c r="L22">
-        <v>0.3165715885254201</v>
+        <v>0.7991698020130542</v>
       </c>
       <c r="M22">
-        <v>0.3477930150310016</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9691435504692802</v>
+        <v>1.94600936912687</v>
       </c>
       <c r="O22">
-        <v>2.499573951082454</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.390790584721572</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.492932836086226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.33103506265644</v>
+        <v>3.911514587105955</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0967868394579412</v>
+        <v>0.1476103883913922</v>
       </c>
       <c r="E23">
-        <v>0.08229058306959747</v>
+        <v>0.3824783102515426</v>
       </c>
       <c r="F23">
-        <v>0.9859145886312604</v>
+        <v>0.4318420633835274</v>
       </c>
       <c r="G23">
-        <v>0.0008028301522472979</v>
+        <v>0.4360532476157317</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6.706472989315149E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01062904005757037</v>
       </c>
       <c r="J23">
-        <v>0.1261878137418631</v>
+        <v>0.2756591626173872</v>
       </c>
       <c r="K23">
-        <v>1.834068393781877</v>
+        <v>0.4456583200320381</v>
       </c>
       <c r="L23">
-        <v>0.3049807567086873</v>
+        <v>0.7759583886248294</v>
       </c>
       <c r="M23">
-        <v>0.3357242036227532</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9891581369050679</v>
+        <v>1.873558539951659</v>
       </c>
       <c r="O23">
-        <v>2.465456479638107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.340273172541885</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.453545050151092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.160947591635761</v>
+        <v>3.363390833313133</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0909308398314792</v>
+        <v>0.1453585459583238</v>
       </c>
       <c r="E24">
-        <v>0.08428033293463688</v>
+        <v>0.3490170495376859</v>
       </c>
       <c r="F24">
-        <v>0.9369404126974104</v>
+        <v>0.4068050162249719</v>
       </c>
       <c r="G24">
-        <v>0.0008087527113242437</v>
+        <v>0.3826497952636743</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0001635567530340332</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01418761029001736</v>
       </c>
       <c r="J24">
-        <v>0.1303385753504807</v>
+        <v>0.258403039839834</v>
       </c>
       <c r="K24">
-        <v>1.571490936047894</v>
+        <v>0.4428822404529953</v>
       </c>
       <c r="L24">
-        <v>0.2613592303441408</v>
+        <v>0.693276792398791</v>
       </c>
       <c r="M24">
-        <v>0.2904151013501419</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.067645178390396</v>
+        <v>1.611759748238313</v>
       </c>
       <c r="O24">
-        <v>2.345127344087871</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.152595056342818</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.303705522480271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9808617555107162</v>
+        <v>2.771318100501674</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08490346671135285</v>
+        <v>0.1431919904073027</v>
       </c>
       <c r="E25">
-        <v>0.08667642989541235</v>
+        <v>0.3132098119608884</v>
       </c>
       <c r="F25">
-        <v>0.8903457560446455</v>
+        <v>0.3836645693926926</v>
       </c>
       <c r="G25">
-        <v>0.0008154022246856185</v>
+        <v>0.3282682416448068</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001311232578246224</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01893977998300311</v>
       </c>
       <c r="J25">
-        <v>0.1350894943645606</v>
+        <v>0.2417026473394799</v>
       </c>
       <c r="K25">
-        <v>1.289986393955672</v>
+        <v>0.443655020456962</v>
       </c>
       <c r="L25">
-        <v>0.214790307649352</v>
+        <v>0.6045639070794948</v>
       </c>
       <c r="M25">
-        <v>0.2422729900480505</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.157750457542264</v>
+        <v>1.33093477999364</v>
       </c>
       <c r="O25">
-        <v>2.232534101513096</v>
+        <v>0.950457737235638</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.152883897052419</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.337044286468824</v>
+        <v>2.361237168751927</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1413194665364834</v>
+        <v>0.1280119576753762</v>
       </c>
       <c r="E2">
-        <v>0.2838740278280838</v>
+        <v>0.2466303394835272</v>
       </c>
       <c r="F2">
-        <v>0.3735877852670484</v>
+        <v>0.4043426981095877</v>
       </c>
       <c r="G2">
-        <v>0.293536585502963</v>
+        <v>0.3031373195477869</v>
       </c>
       <c r="H2">
-        <v>0.002938931272778805</v>
+        <v>0.002069836819211746</v>
       </c>
       <c r="I2">
-        <v>0.02227336523945</v>
+        <v>0.01565934690421233</v>
       </c>
       <c r="J2">
-        <v>0.2324427268831073</v>
+        <v>0.2914120035324714</v>
       </c>
       <c r="K2">
-        <v>0.4413008012529609</v>
+        <v>0.3657458522042987</v>
       </c>
       <c r="L2">
-        <v>0.5324992266217805</v>
+        <v>0.1330019774569511</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1425170993480691</v>
       </c>
       <c r="N2">
-        <v>1.108220680078119</v>
+        <v>0.4597338687597414</v>
       </c>
       <c r="O2">
-        <v>0.7967350957791339</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.9785630462639858</v>
       </c>
       <c r="Q2">
-        <v>1.059416387248262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7608081641512854</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.142677784200515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.04013761544735</v>
+        <v>2.061451568353846</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1404791075603065</v>
+        <v>0.1275048072884033</v>
       </c>
       <c r="E3">
-        <v>0.2659643926327888</v>
+        <v>0.2304273860108523</v>
       </c>
       <c r="F3">
-        <v>0.366091488116588</v>
+        <v>0.3940247274116047</v>
       </c>
       <c r="G3">
-        <v>0.2695339463067228</v>
+        <v>0.2766215489229822</v>
       </c>
       <c r="H3">
-        <v>0.004471418928769566</v>
+        <v>0.003291992903052071</v>
       </c>
       <c r="I3">
-        <v>0.02537094298900477</v>
+        <v>0.01787526697997066</v>
       </c>
       <c r="J3">
-        <v>0.226071502025583</v>
+        <v>0.2826422966706161</v>
       </c>
       <c r="K3">
-        <v>0.444940779632141</v>
+        <v>0.3703048555208888</v>
       </c>
       <c r="L3">
-        <v>0.4879315284107832</v>
+        <v>0.1307757631719557</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1499870170616759</v>
       </c>
       <c r="N3">
-        <v>0.9675960086808288</v>
+        <v>0.4189157199879787</v>
       </c>
       <c r="O3">
-        <v>0.6953998577352465</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.847243544926414</v>
       </c>
       <c r="Q3">
-        <v>0.9948701090851699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6619132423715541</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.072008291974825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.857268743647694</v>
+        <v>1.876701098421961</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1400344735868373</v>
+        <v>0.1272708929459974</v>
       </c>
       <c r="E4">
-        <v>0.2550723490936768</v>
+        <v>0.2206172909087378</v>
       </c>
       <c r="F4">
-        <v>0.3621664262102513</v>
+        <v>0.3882462674914038</v>
       </c>
       <c r="G4">
-        <v>0.2552941853618691</v>
+        <v>0.2608498174798726</v>
       </c>
       <c r="H4">
-        <v>0.005607451514547154</v>
+        <v>0.004212200692194717</v>
       </c>
       <c r="I4">
-        <v>0.02746171440715184</v>
+        <v>0.01938816200411519</v>
       </c>
       <c r="J4">
-        <v>0.2225034722986763</v>
+        <v>0.2774147152008695</v>
       </c>
       <c r="K4">
-        <v>0.4480864874169619</v>
+        <v>0.3739361833920896</v>
       </c>
       <c r="L4">
-        <v>0.4607521167468036</v>
+        <v>0.1301683107361225</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1549431744259735</v>
       </c>
       <c r="N4">
-        <v>0.8817390959428053</v>
+        <v>0.3941147816105399</v>
       </c>
       <c r="O4">
-        <v>0.6332257216204979</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.767277940264762</v>
       </c>
       <c r="Q4">
-        <v>0.9570050195343498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6012771883652306</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.030070561336458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.782309442744207</v>
+        <v>1.80097786089263</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1399166099693439</v>
+        <v>0.1272220722688608</v>
       </c>
       <c r="E5">
-        <v>0.2509771078025835</v>
+        <v>0.2168982978881004</v>
       </c>
       <c r="F5">
-        <v>0.3603015060959365</v>
+        <v>0.3856237504862605</v>
       </c>
       <c r="G5">
-        <v>0.2492949157854198</v>
+        <v>0.2542559382523066</v>
       </c>
       <c r="H5">
-        <v>0.00611695842929072</v>
+        <v>0.004628115808942734</v>
       </c>
       <c r="I5">
-        <v>0.02845235985954364</v>
+        <v>0.02014593572195267</v>
       </c>
       <c r="J5">
-        <v>0.2209640902616314</v>
+        <v>0.2751636624266993</v>
       </c>
       <c r="K5">
-        <v>0.4501583126904443</v>
+        <v>0.375968168631367</v>
       </c>
       <c r="L5">
-        <v>0.4504326901766404</v>
+        <v>0.1301519280753105</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1572715650053844</v>
       </c>
       <c r="N5">
-        <v>0.8486048769619572</v>
+        <v>0.3846317918787747</v>
       </c>
       <c r="O5">
-        <v>0.6084072912198835</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.7362849726704894</v>
       </c>
       <c r="Q5">
-        <v>0.9409773072641485</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5770246888569233</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.012389014485436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.769497320951643</v>
+        <v>1.788073777816976</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1399545225573959</v>
+        <v>0.1272489201628133</v>
       </c>
       <c r="E6">
-        <v>0.2506895295778051</v>
+        <v>0.2165835594608509</v>
       </c>
       <c r="F6">
-        <v>0.3594780265432789</v>
+        <v>0.3847063217740541</v>
       </c>
       <c r="G6">
-        <v>0.2479225069368454</v>
+        <v>0.2528192605399582</v>
       </c>
       <c r="H6">
-        <v>0.006204298253113597</v>
+        <v>0.004700065398002828</v>
       </c>
       <c r="I6">
-        <v>0.02874036354088449</v>
+        <v>0.02041025176089839</v>
       </c>
       <c r="J6">
-        <v>0.2205077403174514</v>
+        <v>0.2745984235009686</v>
       </c>
       <c r="K6">
-        <v>0.4512160335118871</v>
+        <v>0.3767486729071514</v>
       </c>
       <c r="L6">
-        <v>0.4495964967814245</v>
+        <v>0.1302142689387313</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1579311930970135</v>
       </c>
       <c r="N6">
-        <v>0.8452423234624575</v>
+        <v>0.3837484964398072</v>
       </c>
       <c r="O6">
-        <v>0.604911502985999</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.7329055847773702</v>
       </c>
       <c r="Q6">
-        <v>0.9370980951060233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5735353882519121</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.008331446964561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.855282235561134</v>
+        <v>1.874901867516343</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1401896199222143</v>
+        <v>0.1272736911738335</v>
       </c>
       <c r="E7">
-        <v>0.2560901991707141</v>
+        <v>0.2212065105617924</v>
       </c>
       <c r="F7">
-        <v>0.3607146464278372</v>
+        <v>0.3861732686821284</v>
       </c>
       <c r="G7">
-        <v>0.2541676569177369</v>
+        <v>0.2625931555702365</v>
       </c>
       <c r="H7">
-        <v>0.005613913083180225</v>
+        <v>0.004223165347301938</v>
       </c>
       <c r="I7">
-        <v>0.02778764201876793</v>
+        <v>0.0197556760032267</v>
       </c>
       <c r="J7">
-        <v>0.2219221792181898</v>
+        <v>0.2724539827861818</v>
       </c>
       <c r="K7">
-        <v>0.4500449826897928</v>
+        <v>0.3753377155638411</v>
       </c>
       <c r="L7">
-        <v>0.4630111914013355</v>
+        <v>0.1303795458082728</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1557868467274375</v>
       </c>
       <c r="N7">
-        <v>0.8871254929037491</v>
+        <v>0.3956533479691586</v>
       </c>
       <c r="O7">
-        <v>0.634600903527712</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.7711193383066188</v>
       </c>
       <c r="Q7">
-        <v>0.9533991995830462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6022498209858043</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.023783031222933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.233478840736836</v>
+        <v>2.257161692052819</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1412350173420229</v>
+        <v>0.1276522274539751</v>
       </c>
       <c r="E8">
-        <v>0.2791234291666811</v>
+        <v>0.2415107770747795</v>
       </c>
       <c r="F8">
-        <v>0.3689892162993189</v>
+        <v>0.3965910194752524</v>
       </c>
       <c r="G8">
-        <v>0.2837751663322123</v>
+        <v>0.3019748452575328</v>
       </c>
       <c r="H8">
-        <v>0.003424330402112957</v>
+        <v>0.00246561815192109</v>
       </c>
       <c r="I8">
-        <v>0.02367743396670274</v>
+        <v>0.01683151311727027</v>
       </c>
       <c r="J8">
-        <v>0.2294376782524168</v>
+        <v>0.2732421326544383</v>
       </c>
       <c r="K8">
-        <v>0.4450164201662723</v>
+        <v>0.3694796173551076</v>
       </c>
       <c r="L8">
-        <v>0.5203130058353054</v>
+        <v>0.132631074448911</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1462019849977203</v>
       </c>
       <c r="N8">
-        <v>1.067397804574682</v>
+        <v>0.4474192258012835</v>
       </c>
       <c r="O8">
-        <v>0.7640606624127813</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.9377141967104592</v>
       </c>
       <c r="Q8">
-        <v>1.032322603143101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7280788802711839</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.104139329837807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.972710615534936</v>
+        <v>3.002835583679882</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1435616753171516</v>
+        <v>0.1291543669884803</v>
       </c>
       <c r="E9">
-        <v>0.3232145457564215</v>
+        <v>0.2816156633409861</v>
       </c>
       <c r="F9">
-        <v>0.3934696280364776</v>
+        <v>0.4266658971607811</v>
       </c>
       <c r="G9">
-        <v>0.3480464648297215</v>
+        <v>0.3751874125485699</v>
       </c>
       <c r="H9">
-        <v>0.0007972361013585672</v>
+        <v>0.0004517661591225686</v>
       </c>
       <c r="I9">
-        <v>0.01672300996852716</v>
+        <v>0.01181075103951024</v>
       </c>
       <c r="J9">
-        <v>0.248071522361144</v>
+        <v>0.2926380475044539</v>
       </c>
       <c r="K9">
-        <v>0.4390814262815894</v>
+        <v>0.3618288195903219</v>
       </c>
       <c r="L9">
-        <v>0.6299179492027633</v>
+        <v>0.1424192260579638</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1289187522261486</v>
       </c>
       <c r="N9">
-        <v>1.414683891944236</v>
+        <v>0.5484343262119893</v>
       </c>
       <c r="O9">
-        <v>1.015401344996135</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.263295067009921</v>
       </c>
       <c r="Q9">
-        <v>1.208342179471117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.9736047837180664</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.290514761693686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.514836290267567</v>
+        <v>3.550212322480547</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1471160734443586</v>
+        <v>0.1311712244389156</v>
       </c>
       <c r="E10">
-        <v>0.3639213718099086</v>
+        <v>0.3169491456716074</v>
       </c>
       <c r="F10">
-        <v>0.4071779644798639</v>
+        <v>0.4403532782699671</v>
       </c>
       <c r="G10">
-        <v>0.3921411315695735</v>
+        <v>0.4433646088482845</v>
       </c>
       <c r="H10">
-        <v>0.0002502246205464687</v>
+        <v>0.0001935716440137902</v>
       </c>
       <c r="I10">
-        <v>0.01289914757780508</v>
+        <v>0.009220861880923081</v>
       </c>
       <c r="J10">
-        <v>0.2605181774392662</v>
+        <v>0.2807676782800854</v>
       </c>
       <c r="K10">
-        <v>0.4480479455584998</v>
+        <v>0.3674341292451189</v>
       </c>
       <c r="L10">
-        <v>0.7282728039974842</v>
+        <v>0.1559498572356581</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1206910146167672</v>
       </c>
       <c r="N10">
-        <v>1.666388997997302</v>
+        <v>0.6365102890145238</v>
       </c>
       <c r="O10">
-        <v>1.198718654567244</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.49273863462966</v>
       </c>
       <c r="Q10">
-        <v>1.328392428090694</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.150535182438702</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.400916050957136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.773069332334387</v>
+        <v>3.817397460405346</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1637583220503203</v>
+        <v>0.1419755608706126</v>
       </c>
       <c r="E11">
-        <v>0.453935780365768</v>
+        <v>0.3888532844959798</v>
       </c>
       <c r="F11">
-        <v>0.3486911250738558</v>
+        <v>0.3797573544564301</v>
       </c>
       <c r="G11">
-        <v>0.3615196815072892</v>
+        <v>0.4551156639672058</v>
       </c>
       <c r="H11">
-        <v>0.01877331253381698</v>
+        <v>0.01875174214236353</v>
       </c>
       <c r="I11">
-        <v>0.01221185042653161</v>
+        <v>0.009089328754749992</v>
       </c>
       <c r="J11">
-        <v>0.2401085934461236</v>
+        <v>0.218587524917865</v>
       </c>
       <c r="K11">
-        <v>0.5294461155923145</v>
+        <v>0.4240371569727017</v>
       </c>
       <c r="L11">
-        <v>0.9259631295059307</v>
+        <v>0.1836204797478942</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1362692049196994</v>
       </c>
       <c r="N11">
-        <v>1.706308536622515</v>
+        <v>0.7999432387516379</v>
       </c>
       <c r="O11">
-        <v>1.259929363149794</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.488796567814177</v>
       </c>
       <c r="Q11">
-        <v>1.220981265891197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.197546499163394</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.274684272655662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.87862456485027</v>
+        <v>3.929171928859319</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.180040408112589</v>
+        <v>0.1531074471857892</v>
       </c>
       <c r="E12">
-        <v>0.5292343046177308</v>
+        <v>0.4488112934868056</v>
       </c>
       <c r="F12">
-        <v>0.3011531061895809</v>
+        <v>0.3325070912484165</v>
       </c>
       <c r="G12">
-        <v>0.3287121210288149</v>
+        <v>0.4408039468089413</v>
       </c>
       <c r="H12">
-        <v>0.05743609185096687</v>
+        <v>0.05741945251947556</v>
       </c>
       <c r="I12">
-        <v>0.01182363773320017</v>
+        <v>0.008860602488613978</v>
       </c>
       <c r="J12">
-        <v>0.2212872159127244</v>
+        <v>0.1869297391496332</v>
       </c>
       <c r="K12">
-        <v>0.6043228402659651</v>
+        <v>0.4751657895364119</v>
       </c>
       <c r="L12">
-        <v>1.086970273484269</v>
+        <v>0.2059508360375055</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1525596712536945</v>
       </c>
       <c r="N12">
-        <v>1.675717256621539</v>
+        <v>0.931740501125347</v>
       </c>
       <c r="O12">
-        <v>1.269269796198245</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.430243094678445</v>
       </c>
       <c r="Q12">
-        <v>1.112122378842116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.197156587284638</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.162462143472482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.870218794882931</v>
+        <v>3.925133327143783</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1969835532860458</v>
+        <v>0.1657707523515626</v>
       </c>
       <c r="E13">
-        <v>0.5984014010637964</v>
+        <v>0.5045656281511484</v>
       </c>
       <c r="F13">
-        <v>0.2568298929385833</v>
+        <v>0.2913033914865579</v>
       </c>
       <c r="G13">
-        <v>0.2905029796741161</v>
+        <v>0.3970495721126639</v>
       </c>
       <c r="H13">
-        <v>0.1131802839605456</v>
+        <v>0.1131519388378734</v>
       </c>
       <c r="I13">
-        <v>0.01204989300196857</v>
+        <v>0.009030789491416336</v>
       </c>
       <c r="J13">
-        <v>0.2016087496617729</v>
+        <v>0.1776144704490292</v>
       </c>
       <c r="K13">
-        <v>0.6802080575831511</v>
+        <v>0.524402842833581</v>
       </c>
       <c r="L13">
-        <v>1.231100031384727</v>
+        <v>0.2243056422480905</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1708587006683473</v>
       </c>
       <c r="N13">
-        <v>1.598566677069584</v>
+        <v>1.049235403877219</v>
       </c>
       <c r="O13">
-        <v>1.241843882889512</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.335874347701974</v>
       </c>
       <c r="Q13">
-        <v>0.9899176599754185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.163066737278513</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.054201989015894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.812301697622559</v>
+        <v>3.869463848228804</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2095246189028046</v>
+        <v>0.175772211602947</v>
       </c>
       <c r="E14">
-        <v>0.6452145129850848</v>
+        <v>0.5427124410391428</v>
       </c>
       <c r="F14">
-        <v>0.2275229277441326</v>
+        <v>0.2648422214367443</v>
       </c>
       <c r="G14">
-        <v>0.2613904066440114</v>
+        <v>0.3545416077568007</v>
       </c>
       <c r="H14">
-        <v>0.1625262631141453</v>
+        <v>0.1624828712180317</v>
       </c>
       <c r="I14">
-        <v>0.01258225766804788</v>
+        <v>0.009442064010594997</v>
       </c>
       <c r="J14">
-        <v>0.18744712381217</v>
+        <v>0.1793830420107483</v>
       </c>
       <c r="K14">
-        <v>0.7355536887295457</v>
+        <v>0.5588068742000303</v>
       </c>
       <c r="L14">
-        <v>1.326649871897672</v>
+        <v>0.2353771186861806</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1851529937412266</v>
       </c>
       <c r="N14">
-        <v>1.525530582798808</v>
+        <v>1.126858560225799</v>
       </c>
       <c r="O14">
-        <v>1.206570826680178</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.255417282048001</v>
       </c>
       <c r="Q14">
-        <v>0.8985027179659824</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.124452744279751</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9787828461546724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.773359208636464</v>
+        <v>3.830694071324388</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2124214409052883</v>
+        <v>0.1783503343719985</v>
       </c>
       <c r="E15">
-        <v>0.6545975227484178</v>
+        <v>0.5505558338339043</v>
       </c>
       <c r="F15">
-        <v>0.2203764061002431</v>
+        <v>0.2587802783663307</v>
       </c>
       <c r="G15">
-        <v>0.2527576681632411</v>
+        <v>0.3387803286519642</v>
       </c>
       <c r="H15">
-        <v>0.1750408457729264</v>
+        <v>0.1749871163195849</v>
       </c>
       <c r="I15">
-        <v>0.01298930077300664</v>
+        <v>0.009792101037236378</v>
       </c>
       <c r="J15">
-        <v>0.1836258544618943</v>
+        <v>0.1833264046314937</v>
       </c>
       <c r="K15">
-        <v>0.7490104904275583</v>
+        <v>0.5666164472519313</v>
       </c>
       <c r="L15">
-        <v>1.345028050220293</v>
+        <v>0.2370424089113641</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1891303565186071</v>
       </c>
       <c r="N15">
-        <v>1.500411187551606</v>
+        <v>1.141666328151928</v>
       </c>
       <c r="O15">
-        <v>1.190981006443621</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.230126978474431</v>
       </c>
       <c r="Q15">
-        <v>0.8721673323390604</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1.108586577845912</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.9591414053811036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.54002527746627</v>
+        <v>3.593368754872017</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2068096911678623</v>
+        <v>0.1760881473213871</v>
       </c>
       <c r="E16">
-        <v>0.6212376352291713</v>
+        <v>0.5249145627100233</v>
       </c>
       <c r="F16">
-        <v>0.222281229455664</v>
+        <v>0.2643778861274839</v>
       </c>
       <c r="G16">
-        <v>0.2407689196241449</v>
+        <v>0.2947728439838642</v>
       </c>
       <c r="H16">
-        <v>0.1624099386201863</v>
+        <v>0.1622653054843255</v>
       </c>
       <c r="I16">
-        <v>0.0146768383495246</v>
+        <v>0.01100447850317554</v>
       </c>
       <c r="J16">
-        <v>0.1817287192866743</v>
+        <v>0.2160957068872023</v>
       </c>
       <c r="K16">
-        <v>0.726570203101744</v>
+        <v>0.5472820904046642</v>
       </c>
       <c r="L16">
-        <v>1.269934344627245</v>
+        <v>0.222423944494885</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1883701976156402</v>
       </c>
       <c r="N16">
-        <v>1.412882084783149</v>
+        <v>1.079230336894824</v>
       </c>
       <c r="O16">
-        <v>1.119092135957743</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.16082261736895</v>
       </c>
       <c r="Q16">
-        <v>0.8425607714397643</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1.042529820863571</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.9526627784749166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.392280500180505</v>
+        <v>3.441514755835726</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1957176877175186</v>
+        <v>0.1684573841959747</v>
       </c>
       <c r="E17">
-        <v>0.5704960089607169</v>
+        <v>0.4841660234583784</v>
       </c>
       <c r="F17">
-        <v>0.2391617495772707</v>
+        <v>0.2823028795821472</v>
       </c>
       <c r="G17">
-        <v>0.2470204418078836</v>
+        <v>0.2868918728939462</v>
       </c>
       <c r="H17">
-        <v>0.124766363070961</v>
+        <v>0.124544600922448</v>
       </c>
       <c r="I17">
-        <v>0.01574067034252291</v>
+        <v>0.01176341801574399</v>
       </c>
       <c r="J17">
-        <v>0.1878268666949126</v>
+        <v>0.2377144076236064</v>
       </c>
       <c r="K17">
-        <v>0.6799919082707717</v>
+        <v>0.5154630096917572</v>
       </c>
       <c r="L17">
-        <v>1.161081217212256</v>
+        <v>0.2063646702810296</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1802269995388102</v>
       </c>
       <c r="N17">
-        <v>1.384744282933582</v>
+        <v>0.9891836873110549</v>
       </c>
       <c r="O17">
-        <v>1.082849870368278</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.149554830988507</v>
       </c>
       <c r="Q17">
-        <v>0.8684385685657645</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>1.012196213051226</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9850754340980359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.302017925843643</v>
+        <v>3.346378523370674</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1797983087381212</v>
+        <v>0.1566433905433229</v>
       </c>
       <c r="E18">
-        <v>0.5018516075876889</v>
+        <v>0.4286722468708177</v>
       </c>
       <c r="F18">
-        <v>0.2731026847032041</v>
+        <v>0.3159711326867551</v>
       </c>
       <c r="G18">
-        <v>0.2708374916699938</v>
+        <v>0.3033534159047235</v>
       </c>
       <c r="H18">
-        <v>0.07205257087671413</v>
+        <v>0.07178145692620319</v>
       </c>
       <c r="I18">
-        <v>0.0159778617755606</v>
+        <v>0.01177792585872872</v>
       </c>
       <c r="J18">
-        <v>0.2020215208467562</v>
+        <v>0.2580921762376818</v>
       </c>
       <c r="K18">
-        <v>0.6094393351913467</v>
+        <v>0.4695615331909622</v>
       </c>
       <c r="L18">
-        <v>1.015981584031806</v>
+        <v>0.1873590235797451</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1647600077404796</v>
       </c>
       <c r="N18">
-        <v>1.399145795891968</v>
+        <v>0.8699699150329394</v>
       </c>
       <c r="O18">
-        <v>1.071295032146153</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.184172813125997</v>
       </c>
       <c r="Q18">
-        <v>0.9485589680335522</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>1.007912545950404</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.063457564506649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.262473919666093</v>
+        <v>3.301920298493201</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1639842540131937</v>
+        <v>0.144696992897849</v>
       </c>
       <c r="E19">
-        <v>0.4328925156634895</v>
+        <v>0.3728236027705805</v>
       </c>
       <c r="F19">
-        <v>0.3187202470321395</v>
+        <v>0.3601181217788394</v>
       </c>
       <c r="G19">
-        <v>0.3064572434146839</v>
+        <v>0.33506006740879</v>
       </c>
       <c r="H19">
-        <v>0.02679831266693355</v>
+        <v>0.02653076440505941</v>
       </c>
       <c r="I19">
-        <v>0.01608329261284069</v>
+        <v>0.01187280405346502</v>
       </c>
       <c r="J19">
-        <v>0.2212062984152539</v>
+        <v>0.2781348892121827</v>
       </c>
       <c r="K19">
-        <v>0.5383450500174121</v>
+        <v>0.4242236247003106</v>
       </c>
       <c r="L19">
-        <v>0.8703237152126491</v>
+        <v>0.1703329022327971</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1478923205582845</v>
       </c>
       <c r="N19">
-        <v>1.457440663074124</v>
+        <v>0.7506062923878005</v>
       </c>
       <c r="O19">
-        <v>1.083411642775346</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.26310572956578</v>
       </c>
       <c r="Q19">
-        <v>1.064202215827265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.027579897229117</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.172454747321012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.369530631353769</v>
+        <v>3.403597199790681</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1468118420290878</v>
+        <v>0.1314247585320558</v>
       </c>
       <c r="E20">
-        <v>0.3570722565930922</v>
+        <v>0.3114304534669827</v>
       </c>
       <c r="F20">
-        <v>0.3986986362468983</v>
+        <v>0.4347846792209751</v>
       </c>
       <c r="G20">
-        <v>0.3768886534389679</v>
+        <v>0.4116172134936136</v>
       </c>
       <c r="H20">
-        <v>0.0002919844298081564</v>
+        <v>0.0001709656213053634</v>
       </c>
       <c r="I20">
-        <v>0.01474355466521793</v>
+        <v>0.01090272139805037</v>
       </c>
       <c r="J20">
-        <v>0.255288452518343</v>
+        <v>0.2969873677292156</v>
       </c>
       <c r="K20">
-        <v>0.4525625061763563</v>
+        <v>0.3699061301695679</v>
       </c>
       <c r="L20">
-        <v>0.7109128459065914</v>
+        <v>0.1536648694267235</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1243638784642798</v>
       </c>
       <c r="N20">
-        <v>1.618297558036915</v>
+        <v>0.6210366920690404</v>
       </c>
       <c r="O20">
-        <v>1.15587476027288</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.449370676554423</v>
       </c>
       <c r="Q20">
-        <v>1.28497949271943</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.109214928732854</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.371802312312809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.783323518981774</v>
+        <v>3.821957615431018</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1474151537808197</v>
+        <v>0.1296533803762117</v>
       </c>
       <c r="E21">
-        <v>0.3767798969427432</v>
+        <v>0.3255182506770566</v>
       </c>
       <c r="F21">
-        <v>0.4233663465081392</v>
+        <v>0.4450488988541395</v>
       </c>
       <c r="G21">
-        <v>0.4216847862122393</v>
+        <v>0.5320310914958242</v>
       </c>
       <c r="H21">
-        <v>1.180912064951967E-05</v>
+        <v>6.01781445020988E-05</v>
       </c>
       <c r="I21">
-        <v>0.01190626379580006</v>
+        <v>0.008959405672144705</v>
       </c>
       <c r="J21">
-        <v>0.270584171534594</v>
+        <v>0.222464391476457</v>
       </c>
       <c r="K21">
-        <v>0.4487329153778958</v>
+        <v>0.3720405911026283</v>
       </c>
       <c r="L21">
-        <v>0.7613462182269757</v>
+        <v>0.164171153839618</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1170778328918622</v>
       </c>
       <c r="N21">
-        <v>1.823674660193632</v>
+        <v>0.6637927644809025</v>
       </c>
       <c r="O21">
-        <v>1.30005837704573</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.631920748094245</v>
       </c>
       <c r="Q21">
-        <v>1.412348186047581</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.246814637258424</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.432350075609378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.055666894704075</v>
+        <v>4.097470606420529</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1483394124768864</v>
+        <v>0.1288636651692521</v>
       </c>
       <c r="E22">
-        <v>0.3919490743534482</v>
+        <v>0.3363572915704225</v>
       </c>
       <c r="F22">
-        <v>0.4382836586041492</v>
+        <v>0.4493025523561371</v>
       </c>
       <c r="G22">
-        <v>0.4500861693501861</v>
+        <v>0.6187722397897915</v>
       </c>
       <c r="H22">
-        <v>0.0001862429553209921</v>
+        <v>0.0002868222877766002</v>
       </c>
       <c r="I22">
-        <v>0.009954663703220845</v>
+        <v>0.007465598696628994</v>
       </c>
       <c r="J22">
-        <v>0.2802017277847142</v>
+        <v>0.178226090375432</v>
       </c>
       <c r="K22">
-        <v>0.4480612628907252</v>
+        <v>0.3751862107849178</v>
       </c>
       <c r="L22">
-        <v>0.7991698020130542</v>
+        <v>0.1721124342138154</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1129863976669583</v>
       </c>
       <c r="N22">
-        <v>1.94600936912687</v>
+        <v>0.6955103019512165</v>
       </c>
       <c r="O22">
-        <v>1.390790584721572</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.737945197559498</v>
       </c>
       <c r="Q22">
-        <v>1.492932836086226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.332657163483489</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.464192518718988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.911514587105955</v>
+        <v>3.951252095955056</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1476103883913922</v>
+        <v>0.1293604058379501</v>
       </c>
       <c r="E23">
-        <v>0.3824783102515426</v>
+        <v>0.3299953774421098</v>
       </c>
       <c r="F23">
-        <v>0.4318420633835274</v>
+        <v>0.4502663752570868</v>
       </c>
       <c r="G23">
-        <v>0.4360532476157317</v>
+        <v>0.5646760099566279</v>
       </c>
       <c r="H23">
-        <v>6.706472989315149E-05</v>
+        <v>0.0001464092420663254</v>
       </c>
       <c r="I23">
-        <v>0.01062904005757037</v>
+        <v>0.007834951389175338</v>
       </c>
       <c r="J23">
-        <v>0.2756591626173872</v>
+        <v>0.2093710190207076</v>
       </c>
       <c r="K23">
-        <v>0.4456583200320381</v>
+        <v>0.3708266379982881</v>
       </c>
       <c r="L23">
-        <v>0.7759583886248294</v>
+        <v>0.1667633793052516</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1142405236700128</v>
       </c>
       <c r="N23">
-        <v>1.873558539951659</v>
+        <v>0.6767344870113732</v>
       </c>
       <c r="O23">
-        <v>1.340273172541885</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.676988379794352</v>
       </c>
       <c r="Q23">
-        <v>1.453545050151092</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.285531659481777</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.458247086339668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.363390833313133</v>
+        <v>3.396711406733289</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1453585459583238</v>
+        <v>0.1303805004674281</v>
       </c>
       <c r="E24">
-        <v>0.3490170495376859</v>
+        <v>0.3048976597598525</v>
       </c>
       <c r="F24">
-        <v>0.4068050162249719</v>
+        <v>0.4423912237906009</v>
       </c>
       <c r="G24">
-        <v>0.3826497952636743</v>
+        <v>0.4162762569493168</v>
       </c>
       <c r="H24">
-        <v>0.0001635567530340332</v>
+        <v>4.638752957875081E-05</v>
       </c>
       <c r="I24">
-        <v>0.01418761029001736</v>
+        <v>0.01024199201678133</v>
       </c>
       <c r="J24">
-        <v>0.258403039839834</v>
+        <v>0.3005935518393983</v>
       </c>
       <c r="K24">
-        <v>0.4428822404529953</v>
+        <v>0.3633959614514701</v>
       </c>
       <c r="L24">
-        <v>0.693276792398791</v>
+        <v>0.1511266199651047</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1220286900408531</v>
       </c>
       <c r="N24">
-        <v>1.611759748238313</v>
+        <v>0.6065003215444307</v>
       </c>
       <c r="O24">
-        <v>1.152595056342818</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.447314530199634</v>
       </c>
       <c r="Q24">
-        <v>1.303705522480271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.107263674185262</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.38927747920701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.771318100501674</v>
+        <v>2.799871654163042</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1431919904073027</v>
+        <v>0.1290331977838619</v>
       </c>
       <c r="E25">
-        <v>0.3132098119608884</v>
+        <v>0.2725179016373573</v>
       </c>
       <c r="F25">
-        <v>0.3836645693926926</v>
+        <v>0.4166475784735013</v>
       </c>
       <c r="G25">
-        <v>0.3282682416448068</v>
+        <v>0.3490700647670195</v>
       </c>
       <c r="H25">
-        <v>0.001311232578246224</v>
+        <v>0.0008240326559989519</v>
       </c>
       <c r="I25">
-        <v>0.01893977998300311</v>
+        <v>0.01361599322375717</v>
       </c>
       <c r="J25">
-        <v>0.2417026473394799</v>
+        <v>0.292454407552114</v>
       </c>
       <c r="K25">
-        <v>0.443655020456962</v>
+        <v>0.365458694419253</v>
       </c>
       <c r="L25">
-        <v>0.6045639070794948</v>
+        <v>0.1398525894086262</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.134247831566821</v>
       </c>
       <c r="N25">
-        <v>1.33093477999364</v>
+        <v>0.5247952299833685</v>
       </c>
       <c r="O25">
-        <v>0.950457737235638</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.184322054945824</v>
       </c>
       <c r="Q25">
-        <v>1.152883897052419</v>
+        <v>0.9100295272480992</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.237302618250993</v>
       </c>
     </row>
   </sheetData>
